--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -51205,7 +51205,9 @@
       <c r="Q906" t="n">
         <v>0</v>
       </c>
-      <c r="R906" t="inlineStr"/>
+      <c r="R906" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -51485,7 +51485,9 @@
       <c r="Q911" t="n">
         <v>0</v>
       </c>
-      <c r="R911" t="inlineStr"/>
+      <c r="R911" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
@@ -51539,7 +51541,9 @@
       <c r="Q912" t="n">
         <v>0</v>
       </c>
-      <c r="R912" t="inlineStr"/>
+      <c r="R912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
@@ -51593,7 +51597,9 @@
       <c r="Q913" t="n">
         <v>0</v>
       </c>
-      <c r="R913" t="inlineStr"/>
+      <c r="R913" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
@@ -51647,7 +51653,9 @@
       <c r="Q914" t="n">
         <v>0</v>
       </c>
-      <c r="R914" t="inlineStr"/>
+      <c r="R914" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
@@ -51701,7 +51709,9 @@
       <c r="Q915" t="n">
         <v>0</v>
       </c>
-      <c r="R915" t="inlineStr"/>
+      <c r="R915" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R915"/>
+  <dimension ref="A1:R916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51713,6 +51713,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B916" t="n">
+        <v>3610</v>
+      </c>
+      <c r="C916" t="n">
+        <v>3661.699951171875</v>
+      </c>
+      <c r="D916" t="n">
+        <v>3527.60009765625</v>
+      </c>
+      <c r="E916" t="n">
+        <v>3649.25</v>
+      </c>
+      <c r="F916" t="n">
+        <v>3649.25</v>
+      </c>
+      <c r="G916" t="n">
+        <v>244483</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I916" t="n">
+        <v>6</v>
+      </c>
+      <c r="J916" t="n">
+        <v>18</v>
+      </c>
+      <c r="K916" t="n">
+        <v>0</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>25</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
+      <c r="R916" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R916"/>
+  <dimension ref="A1:R917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51253,7 +51253,7 @@
         <v>23</v>
       </c>
       <c r="O907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P907" t="n">
         <v>0</v>
@@ -51765,7 +51765,63 @@
       <c r="Q916" t="n">
         <v>0</v>
       </c>
-      <c r="R916" t="inlineStr"/>
+      <c r="R916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B917" t="n">
+        <v>3684.949951171875</v>
+      </c>
+      <c r="C917" t="n">
+        <v>3685</v>
+      </c>
+      <c r="D917" t="n">
+        <v>3560</v>
+      </c>
+      <c r="E917" t="n">
+        <v>3571.449951171875</v>
+      </c>
+      <c r="F917" t="n">
+        <v>3571.449951171875</v>
+      </c>
+      <c r="G917" t="n">
+        <v>160178</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I917" t="n">
+        <v>6</v>
+      </c>
+      <c r="J917" t="n">
+        <v>19</v>
+      </c>
+      <c r="K917" t="n">
+        <v>0</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>25</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
+      <c r="R917" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R917"/>
+  <dimension ref="A1:R924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51821,7 +51821,387 @@
       <c r="Q917" t="n">
         <v>0</v>
       </c>
-      <c r="R917" t="inlineStr"/>
+      <c r="R917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B918" t="n">
+        <v>3607.60009765625</v>
+      </c>
+      <c r="C918" t="n">
+        <v>3607.60009765625</v>
+      </c>
+      <c r="D918" t="n">
+        <v>3488</v>
+      </c>
+      <c r="E918" t="n">
+        <v>3516.199951171875</v>
+      </c>
+      <c r="F918" t="n">
+        <v>3516.199951171875</v>
+      </c>
+      <c r="G918" t="n">
+        <v>140675</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I918" t="n">
+        <v>6</v>
+      </c>
+      <c r="J918" t="n">
+        <v>20</v>
+      </c>
+      <c r="K918" t="n">
+        <v>0</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>0</v>
+      </c>
+      <c r="N918" t="n">
+        <v>25</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+      <c r="P918" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>1</v>
+      </c>
+      <c r="R918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B919" t="n">
+        <v>3519</v>
+      </c>
+      <c r="C919" t="n">
+        <v>3654</v>
+      </c>
+      <c r="D919" t="n">
+        <v>3516.14990234375</v>
+      </c>
+      <c r="E919" t="n">
+        <v>3548.800048828125</v>
+      </c>
+      <c r="F919" t="n">
+        <v>3548.800048828125</v>
+      </c>
+      <c r="G919" t="n">
+        <v>327647</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I919" t="n">
+        <v>6</v>
+      </c>
+      <c r="J919" t="n">
+        <v>21</v>
+      </c>
+      <c r="K919" t="n">
+        <v>0</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0</v>
+      </c>
+      <c r="N919" t="n">
+        <v>25</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+      <c r="P919" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>0</v>
+      </c>
+      <c r="R919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B920" t="n">
+        <v>3540</v>
+      </c>
+      <c r="C920" t="n">
+        <v>3665</v>
+      </c>
+      <c r="D920" t="n">
+        <v>3536</v>
+      </c>
+      <c r="E920" t="n">
+        <v>3656.35009765625</v>
+      </c>
+      <c r="F920" t="n">
+        <v>3656.35009765625</v>
+      </c>
+      <c r="G920" t="n">
+        <v>222698</v>
+      </c>
+      <c r="H920" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I920" t="n">
+        <v>6</v>
+      </c>
+      <c r="J920" t="n">
+        <v>24</v>
+      </c>
+      <c r="K920" t="n">
+        <v>0</v>
+      </c>
+      <c r="L920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M920" t="n">
+        <v>0</v>
+      </c>
+      <c r="N920" t="n">
+        <v>26</v>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+      <c r="P920" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>0</v>
+      </c>
+      <c r="R920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B921" t="n">
+        <v>3720</v>
+      </c>
+      <c r="C921" t="n">
+        <v>3838</v>
+      </c>
+      <c r="D921" t="n">
+        <v>3663.25</v>
+      </c>
+      <c r="E921" t="n">
+        <v>3684.800048828125</v>
+      </c>
+      <c r="F921" t="n">
+        <v>3684.800048828125</v>
+      </c>
+      <c r="G921" t="n">
+        <v>719979</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I921" t="n">
+        <v>6</v>
+      </c>
+      <c r="J921" t="n">
+        <v>25</v>
+      </c>
+      <c r="K921" t="n">
+        <v>0</v>
+      </c>
+      <c r="L921" t="n">
+        <v>0</v>
+      </c>
+      <c r="M921" t="n">
+        <v>0</v>
+      </c>
+      <c r="N921" t="n">
+        <v>26</v>
+      </c>
+      <c r="O921" t="n">
+        <v>0</v>
+      </c>
+      <c r="P921" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>0</v>
+      </c>
+      <c r="R921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B922" t="n">
+        <v>3693</v>
+      </c>
+      <c r="C922" t="n">
+        <v>3714.64990234375</v>
+      </c>
+      <c r="D922" t="n">
+        <v>3639</v>
+      </c>
+      <c r="E922" t="n">
+        <v>3649.14990234375</v>
+      </c>
+      <c r="F922" t="n">
+        <v>3649.14990234375</v>
+      </c>
+      <c r="G922" t="n">
+        <v>115904</v>
+      </c>
+      <c r="H922" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I922" t="n">
+        <v>6</v>
+      </c>
+      <c r="J922" t="n">
+        <v>26</v>
+      </c>
+      <c r="K922" t="n">
+        <v>0</v>
+      </c>
+      <c r="L922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M922" t="n">
+        <v>0</v>
+      </c>
+      <c r="N922" t="n">
+        <v>26</v>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+      <c r="P922" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>0</v>
+      </c>
+      <c r="R922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B923" t="n">
+        <v>3652.449951171875</v>
+      </c>
+      <c r="C923" t="n">
+        <v>3659.050048828125</v>
+      </c>
+      <c r="D923" t="n">
+        <v>3529.25</v>
+      </c>
+      <c r="E923" t="n">
+        <v>3551.10009765625</v>
+      </c>
+      <c r="F923" t="n">
+        <v>3551.10009765625</v>
+      </c>
+      <c r="G923" t="n">
+        <v>173710</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I923" t="n">
+        <v>6</v>
+      </c>
+      <c r="J923" t="n">
+        <v>27</v>
+      </c>
+      <c r="K923" t="n">
+        <v>0</v>
+      </c>
+      <c r="L923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M923" t="n">
+        <v>0</v>
+      </c>
+      <c r="N923" t="n">
+        <v>26</v>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+      <c r="P923" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>0</v>
+      </c>
+      <c r="R923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B924" t="n">
+        <v>3574.949951171875</v>
+      </c>
+      <c r="C924" t="n">
+        <v>3662.75</v>
+      </c>
+      <c r="D924" t="n">
+        <v>3560</v>
+      </c>
+      <c r="E924" t="n">
+        <v>3612.75</v>
+      </c>
+      <c r="F924" t="n">
+        <v>3612.75</v>
+      </c>
+      <c r="G924" t="n">
+        <v>238986</v>
+      </c>
+      <c r="H924" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I924" t="n">
+        <v>6</v>
+      </c>
+      <c r="J924" t="n">
+        <v>28</v>
+      </c>
+      <c r="K924" t="n">
+        <v>0</v>
+      </c>
+      <c r="L924" t="n">
+        <v>0</v>
+      </c>
+      <c r="M924" t="n">
+        <v>0</v>
+      </c>
+      <c r="N924" t="n">
+        <v>26</v>
+      </c>
+      <c r="O924" t="n">
+        <v>0</v>
+      </c>
+      <c r="P924" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>0</v>
+      </c>
+      <c r="R924" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -51877,7 +51877,9 @@
       <c r="Q918" t="n">
         <v>1</v>
       </c>
-      <c r="R918" t="inlineStr"/>
+      <c r="R918" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
@@ -51931,7 +51933,9 @@
       <c r="Q919" t="n">
         <v>0</v>
       </c>
-      <c r="R919" t="inlineStr"/>
+      <c r="R919" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
@@ -51985,7 +51989,9 @@
       <c r="Q920" t="n">
         <v>0</v>
       </c>
-      <c r="R920" t="inlineStr"/>
+      <c r="R920" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
@@ -52039,7 +52045,9 @@
       <c r="Q921" t="n">
         <v>0</v>
       </c>
-      <c r="R921" t="inlineStr"/>
+      <c r="R921" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
@@ -52093,7 +52101,9 @@
       <c r="Q922" t="n">
         <v>0</v>
       </c>
-      <c r="R922" t="inlineStr"/>
+      <c r="R922" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
@@ -52147,7 +52157,9 @@
       <c r="Q923" t="n">
         <v>0</v>
       </c>
-      <c r="R923" t="inlineStr"/>
+      <c r="R923" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
@@ -52201,7 +52213,9 @@
       <c r="Q924" t="n">
         <v>0</v>
       </c>
-      <c r="R924" t="inlineStr"/>
+      <c r="R924" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R924"/>
+  <dimension ref="A1:R929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52217,6 +52217,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B925" t="n">
+        <v>3620</v>
+      </c>
+      <c r="C925" t="n">
+        <v>3675</v>
+      </c>
+      <c r="D925" t="n">
+        <v>3601.10009765625</v>
+      </c>
+      <c r="E925" t="n">
+        <v>3653.89990234375</v>
+      </c>
+      <c r="F925" t="n">
+        <v>3637.714599609375</v>
+      </c>
+      <c r="G925" t="n">
+        <v>160678</v>
+      </c>
+      <c r="H925" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I925" t="n">
+        <v>7</v>
+      </c>
+      <c r="J925" t="n">
+        <v>1</v>
+      </c>
+      <c r="K925" t="n">
+        <v>0</v>
+      </c>
+      <c r="L925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M925" t="n">
+        <v>0</v>
+      </c>
+      <c r="N925" t="n">
+        <v>27</v>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+      <c r="P925" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>0</v>
+      </c>
+      <c r="R925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B926" t="n">
+        <v>3727.10009765625</v>
+      </c>
+      <c r="C926" t="n">
+        <v>3770</v>
+      </c>
+      <c r="D926" t="n">
+        <v>3706.10009765625</v>
+      </c>
+      <c r="E926" t="n">
+        <v>3762.949951171875</v>
+      </c>
+      <c r="F926" t="n">
+        <v>3746.28173828125</v>
+      </c>
+      <c r="G926" t="n">
+        <v>343378</v>
+      </c>
+      <c r="H926" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I926" t="n">
+        <v>7</v>
+      </c>
+      <c r="J926" t="n">
+        <v>2</v>
+      </c>
+      <c r="K926" t="n">
+        <v>0</v>
+      </c>
+      <c r="L926" t="n">
+        <v>0</v>
+      </c>
+      <c r="M926" t="n">
+        <v>0</v>
+      </c>
+      <c r="N926" t="n">
+        <v>27</v>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+      <c r="P926" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>0</v>
+      </c>
+      <c r="R926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B927" t="n">
+        <v>3779.89990234375</v>
+      </c>
+      <c r="C927" t="n">
+        <v>3840</v>
+      </c>
+      <c r="D927" t="n">
+        <v>3763.949951171875</v>
+      </c>
+      <c r="E927" t="n">
+        <v>3799.550048828125</v>
+      </c>
+      <c r="F927" t="n">
+        <v>3782.7197265625</v>
+      </c>
+      <c r="G927" t="n">
+        <v>171193</v>
+      </c>
+      <c r="H927" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I927" t="n">
+        <v>7</v>
+      </c>
+      <c r="J927" t="n">
+        <v>3</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0</v>
+      </c>
+      <c r="L927" t="n">
+        <v>0</v>
+      </c>
+      <c r="M927" t="n">
+        <v>0</v>
+      </c>
+      <c r="N927" t="n">
+        <v>27</v>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+      <c r="P927" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>0</v>
+      </c>
+      <c r="R927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B928" t="n">
+        <v>3795.949951171875</v>
+      </c>
+      <c r="C928" t="n">
+        <v>3829.5</v>
+      </c>
+      <c r="D928" t="n">
+        <v>3712.949951171875</v>
+      </c>
+      <c r="E928" t="n">
+        <v>3724.949951171875</v>
+      </c>
+      <c r="F928" t="n">
+        <v>3708.449951171875</v>
+      </c>
+      <c r="G928" t="n">
+        <v>131275</v>
+      </c>
+      <c r="H928" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I928" t="n">
+        <v>7</v>
+      </c>
+      <c r="J928" t="n">
+        <v>4</v>
+      </c>
+      <c r="K928" t="n">
+        <v>0</v>
+      </c>
+      <c r="L928" t="n">
+        <v>0</v>
+      </c>
+      <c r="M928" t="n">
+        <v>0</v>
+      </c>
+      <c r="N928" t="n">
+        <v>27</v>
+      </c>
+      <c r="O928" t="n">
+        <v>0</v>
+      </c>
+      <c r="P928" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>0</v>
+      </c>
+      <c r="R928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B929" t="n">
+        <v>3730</v>
+      </c>
+      <c r="C929" t="n">
+        <v>3890</v>
+      </c>
+      <c r="D929" t="n">
+        <v>3720</v>
+      </c>
+      <c r="E929" t="n">
+        <v>3765.300048828125</v>
+      </c>
+      <c r="F929" t="n">
+        <v>3765.300048828125</v>
+      </c>
+      <c r="G929" t="n">
+        <v>397343</v>
+      </c>
+      <c r="H929" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I929" t="n">
+        <v>7</v>
+      </c>
+      <c r="J929" t="n">
+        <v>5</v>
+      </c>
+      <c r="K929" t="n">
+        <v>0</v>
+      </c>
+      <c r="L929" t="n">
+        <v>0</v>
+      </c>
+      <c r="M929" t="n">
+        <v>0</v>
+      </c>
+      <c r="N929" t="n">
+        <v>27</v>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+      <c r="P929" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>0</v>
+      </c>
+      <c r="R929" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R929"/>
+  <dimension ref="A1:R938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52269,7 +52269,9 @@
       <c r="Q925" t="n">
         <v>0</v>
       </c>
-      <c r="R925" t="inlineStr"/>
+      <c r="R925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
@@ -52323,7 +52325,9 @@
       <c r="Q926" t="n">
         <v>0</v>
       </c>
-      <c r="R926" t="inlineStr"/>
+      <c r="R926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
@@ -52377,7 +52381,9 @@
       <c r="Q927" t="n">
         <v>0</v>
       </c>
-      <c r="R927" t="inlineStr"/>
+      <c r="R927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
@@ -52431,7 +52437,9 @@
       <c r="Q928" t="n">
         <v>0</v>
       </c>
-      <c r="R928" t="inlineStr"/>
+      <c r="R928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
@@ -52485,7 +52493,495 @@
       <c r="Q929" t="n">
         <v>0</v>
       </c>
-      <c r="R929" t="inlineStr"/>
+      <c r="R929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B930" t="n">
+        <v>3753.050048828125</v>
+      </c>
+      <c r="C930" t="n">
+        <v>3795.10009765625</v>
+      </c>
+      <c r="D930" t="n">
+        <v>3733.300048828125</v>
+      </c>
+      <c r="E930" t="n">
+        <v>3762.5</v>
+      </c>
+      <c r="F930" t="n">
+        <v>3762.5</v>
+      </c>
+      <c r="G930" t="n">
+        <v>88145</v>
+      </c>
+      <c r="H930" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I930" t="n">
+        <v>7</v>
+      </c>
+      <c r="J930" t="n">
+        <v>8</v>
+      </c>
+      <c r="K930" t="n">
+        <v>0</v>
+      </c>
+      <c r="L930" t="n">
+        <v>0</v>
+      </c>
+      <c r="M930" t="n">
+        <v>0</v>
+      </c>
+      <c r="N930" t="n">
+        <v>28</v>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+      <c r="P930" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>0</v>
+      </c>
+      <c r="R930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B931" t="n">
+        <v>3770.199951171875</v>
+      </c>
+      <c r="C931" t="n">
+        <v>4012</v>
+      </c>
+      <c r="D931" t="n">
+        <v>3770</v>
+      </c>
+      <c r="E931" t="n">
+        <v>3987.85009765625</v>
+      </c>
+      <c r="F931" t="n">
+        <v>3987.85009765625</v>
+      </c>
+      <c r="G931" t="n">
+        <v>674785</v>
+      </c>
+      <c r="H931" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I931" t="n">
+        <v>7</v>
+      </c>
+      <c r="J931" t="n">
+        <v>9</v>
+      </c>
+      <c r="K931" t="n">
+        <v>0</v>
+      </c>
+      <c r="L931" t="n">
+        <v>0</v>
+      </c>
+      <c r="M931" t="n">
+        <v>0</v>
+      </c>
+      <c r="N931" t="n">
+        <v>28</v>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+      <c r="P931" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>0</v>
+      </c>
+      <c r="R931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B932" t="n">
+        <v>4005</v>
+      </c>
+      <c r="C932" t="n">
+        <v>4327.75</v>
+      </c>
+      <c r="D932" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E932" t="n">
+        <v>4075.64990234375</v>
+      </c>
+      <c r="F932" t="n">
+        <v>4075.64990234375</v>
+      </c>
+      <c r="G932" t="n">
+        <v>2013637</v>
+      </c>
+      <c r="H932" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I932" t="n">
+        <v>7</v>
+      </c>
+      <c r="J932" t="n">
+        <v>10</v>
+      </c>
+      <c r="K932" t="n">
+        <v>0</v>
+      </c>
+      <c r="L932" t="n">
+        <v>0</v>
+      </c>
+      <c r="M932" t="n">
+        <v>0</v>
+      </c>
+      <c r="N932" t="n">
+        <v>28</v>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+      <c r="P932" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>0</v>
+      </c>
+      <c r="R932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B933" t="n">
+        <v>4153.9501953125</v>
+      </c>
+      <c r="C933" t="n">
+        <v>4173.5</v>
+      </c>
+      <c r="D933" t="n">
+        <v>3975</v>
+      </c>
+      <c r="E933" t="n">
+        <v>4115.64990234375</v>
+      </c>
+      <c r="F933" t="n">
+        <v>4115.64990234375</v>
+      </c>
+      <c r="G933" t="n">
+        <v>477170</v>
+      </c>
+      <c r="H933" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I933" t="n">
+        <v>7</v>
+      </c>
+      <c r="J933" t="n">
+        <v>11</v>
+      </c>
+      <c r="K933" t="n">
+        <v>0</v>
+      </c>
+      <c r="L933" t="n">
+        <v>0</v>
+      </c>
+      <c r="M933" t="n">
+        <v>0</v>
+      </c>
+      <c r="N933" t="n">
+        <v>28</v>
+      </c>
+      <c r="O933" t="n">
+        <v>0</v>
+      </c>
+      <c r="P933" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>0</v>
+      </c>
+      <c r="R933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B934" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C934" t="n">
+        <v>4229</v>
+      </c>
+      <c r="D934" t="n">
+        <v>4027.050048828125</v>
+      </c>
+      <c r="E934" t="n">
+        <v>4070.25</v>
+      </c>
+      <c r="F934" t="n">
+        <v>4070.25</v>
+      </c>
+      <c r="G934" t="n">
+        <v>354359</v>
+      </c>
+      <c r="H934" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I934" t="n">
+        <v>7</v>
+      </c>
+      <c r="J934" t="n">
+        <v>12</v>
+      </c>
+      <c r="K934" t="n">
+        <v>0</v>
+      </c>
+      <c r="L934" t="n">
+        <v>0</v>
+      </c>
+      <c r="M934" t="n">
+        <v>0</v>
+      </c>
+      <c r="N934" t="n">
+        <v>28</v>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+      <c r="P934" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>0</v>
+      </c>
+      <c r="R934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B935" t="n">
+        <v>4050</v>
+      </c>
+      <c r="C935" t="n">
+        <v>4098.9501953125</v>
+      </c>
+      <c r="D935" t="n">
+        <v>4011</v>
+      </c>
+      <c r="E935" t="n">
+        <v>4041.35009765625</v>
+      </c>
+      <c r="F935" t="n">
+        <v>4041.35009765625</v>
+      </c>
+      <c r="G935" t="n">
+        <v>145285</v>
+      </c>
+      <c r="H935" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I935" t="n">
+        <v>7</v>
+      </c>
+      <c r="J935" t="n">
+        <v>15</v>
+      </c>
+      <c r="K935" t="n">
+        <v>0</v>
+      </c>
+      <c r="L935" t="n">
+        <v>0</v>
+      </c>
+      <c r="M935" t="n">
+        <v>0</v>
+      </c>
+      <c r="N935" t="n">
+        <v>29</v>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+      <c r="P935" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>0</v>
+      </c>
+      <c r="R935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B936" t="n">
+        <v>4054.949951171875</v>
+      </c>
+      <c r="C936" t="n">
+        <v>4256</v>
+      </c>
+      <c r="D936" t="n">
+        <v>4048.14990234375</v>
+      </c>
+      <c r="E936" t="n">
+        <v>4226.75</v>
+      </c>
+      <c r="F936" t="n">
+        <v>4226.75</v>
+      </c>
+      <c r="G936" t="n">
+        <v>596704</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I936" t="n">
+        <v>7</v>
+      </c>
+      <c r="J936" t="n">
+        <v>16</v>
+      </c>
+      <c r="K936" t="n">
+        <v>0</v>
+      </c>
+      <c r="L936" t="n">
+        <v>0</v>
+      </c>
+      <c r="M936" t="n">
+        <v>0</v>
+      </c>
+      <c r="N936" t="n">
+        <v>29</v>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+      <c r="P936" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>0</v>
+      </c>
+      <c r="R936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B937" t="n">
+        <v>4255</v>
+      </c>
+      <c r="C937" t="n">
+        <v>4319.7998046875</v>
+      </c>
+      <c r="D937" t="n">
+        <v>4146</v>
+      </c>
+      <c r="E937" t="n">
+        <v>4170.5498046875</v>
+      </c>
+      <c r="F937" t="n">
+        <v>4170.5498046875</v>
+      </c>
+      <c r="G937" t="n">
+        <v>355549</v>
+      </c>
+      <c r="H937" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I937" t="n">
+        <v>7</v>
+      </c>
+      <c r="J937" t="n">
+        <v>18</v>
+      </c>
+      <c r="K937" t="n">
+        <v>0</v>
+      </c>
+      <c r="L937" t="n">
+        <v>0</v>
+      </c>
+      <c r="M937" t="n">
+        <v>0</v>
+      </c>
+      <c r="N937" t="n">
+        <v>29</v>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+      <c r="P937" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>0</v>
+      </c>
+      <c r="R937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B938" t="n">
+        <v>4167.0498046875</v>
+      </c>
+      <c r="C938" t="n">
+        <v>4176.39990234375</v>
+      </c>
+      <c r="D938" t="n">
+        <v>4051</v>
+      </c>
+      <c r="E938" t="n">
+        <v>4128.9501953125</v>
+      </c>
+      <c r="F938" t="n">
+        <v>4128.9501953125</v>
+      </c>
+      <c r="G938" t="n">
+        <v>179585</v>
+      </c>
+      <c r="H938" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I938" t="n">
+        <v>7</v>
+      </c>
+      <c r="J938" t="n">
+        <v>19</v>
+      </c>
+      <c r="K938" t="n">
+        <v>0</v>
+      </c>
+      <c r="L938" t="n">
+        <v>0</v>
+      </c>
+      <c r="M938" t="n">
+        <v>0</v>
+      </c>
+      <c r="N938" t="n">
+        <v>29</v>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+      <c r="P938" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>0</v>
+      </c>
+      <c r="R938" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R938"/>
+  <dimension ref="A1:R948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52549,7 +52549,9 @@
       <c r="Q930" t="n">
         <v>0</v>
       </c>
-      <c r="R930" t="inlineStr"/>
+      <c r="R930" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
@@ -52603,7 +52605,9 @@
       <c r="Q931" t="n">
         <v>0</v>
       </c>
-      <c r="R931" t="inlineStr"/>
+      <c r="R931" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
@@ -52649,7 +52653,7 @@
         <v>28</v>
       </c>
       <c r="O932" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P932" t="n">
         <v>0</v>
@@ -52657,7 +52661,9 @@
       <c r="Q932" t="n">
         <v>0</v>
       </c>
-      <c r="R932" t="inlineStr"/>
+      <c r="R932" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
@@ -52711,7 +52717,9 @@
       <c r="Q933" t="n">
         <v>0</v>
       </c>
-      <c r="R933" t="inlineStr"/>
+      <c r="R933" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
@@ -52765,7 +52773,9 @@
       <c r="Q934" t="n">
         <v>0</v>
       </c>
-      <c r="R934" t="inlineStr"/>
+      <c r="R934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
@@ -52819,7 +52829,9 @@
       <c r="Q935" t="n">
         <v>0</v>
       </c>
-      <c r="R935" t="inlineStr"/>
+      <c r="R935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
@@ -52873,7 +52885,9 @@
       <c r="Q936" t="n">
         <v>0</v>
       </c>
-      <c r="R936" t="inlineStr"/>
+      <c r="R936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
@@ -52927,7 +52941,9 @@
       <c r="Q937" t="n">
         <v>0</v>
       </c>
-      <c r="R937" t="inlineStr"/>
+      <c r="R937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
@@ -52981,7 +52997,549 @@
       <c r="Q938" t="n">
         <v>0</v>
       </c>
-      <c r="R938" t="inlineStr"/>
+      <c r="R938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B939" t="n">
+        <v>4100</v>
+      </c>
+      <c r="C939" t="n">
+        <v>4155</v>
+      </c>
+      <c r="D939" t="n">
+        <v>4042.5</v>
+      </c>
+      <c r="E939" t="n">
+        <v>4054.800048828125</v>
+      </c>
+      <c r="F939" t="n">
+        <v>4054.800048828125</v>
+      </c>
+      <c r="G939" t="n">
+        <v>131868</v>
+      </c>
+      <c r="H939" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I939" t="n">
+        <v>7</v>
+      </c>
+      <c r="J939" t="n">
+        <v>22</v>
+      </c>
+      <c r="K939" t="n">
+        <v>0</v>
+      </c>
+      <c r="L939" t="n">
+        <v>0</v>
+      </c>
+      <c r="M939" t="n">
+        <v>0</v>
+      </c>
+      <c r="N939" t="n">
+        <v>30</v>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+      <c r="P939" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>0</v>
+      </c>
+      <c r="R939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B940" t="n">
+        <v>4062</v>
+      </c>
+      <c r="C940" t="n">
+        <v>4248.60009765625</v>
+      </c>
+      <c r="D940" t="n">
+        <v>3777</v>
+      </c>
+      <c r="E940" t="n">
+        <v>4051.35009765625</v>
+      </c>
+      <c r="F940" t="n">
+        <v>4051.35009765625</v>
+      </c>
+      <c r="G940" t="n">
+        <v>772670</v>
+      </c>
+      <c r="H940" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I940" t="n">
+        <v>7</v>
+      </c>
+      <c r="J940" t="n">
+        <v>23</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0</v>
+      </c>
+      <c r="L940" t="n">
+        <v>0</v>
+      </c>
+      <c r="M940" t="n">
+        <v>0</v>
+      </c>
+      <c r="N940" t="n">
+        <v>30</v>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+      <c r="P940" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>0</v>
+      </c>
+      <c r="R940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B941" t="n">
+        <v>4044</v>
+      </c>
+      <c r="C941" t="n">
+        <v>4125</v>
+      </c>
+      <c r="D941" t="n">
+        <v>4015.949951171875</v>
+      </c>
+      <c r="E941" t="n">
+        <v>4071.39990234375</v>
+      </c>
+      <c r="F941" t="n">
+        <v>4071.39990234375</v>
+      </c>
+      <c r="G941" t="n">
+        <v>136120</v>
+      </c>
+      <c r="H941" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I941" t="n">
+        <v>7</v>
+      </c>
+      <c r="J941" t="n">
+        <v>24</v>
+      </c>
+      <c r="K941" t="n">
+        <v>0</v>
+      </c>
+      <c r="L941" t="n">
+        <v>0</v>
+      </c>
+      <c r="M941" t="n">
+        <v>0</v>
+      </c>
+      <c r="N941" t="n">
+        <v>30</v>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+      <c r="P941" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>0</v>
+      </c>
+      <c r="R941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B942" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C942" t="n">
+        <v>4071.699951171875</v>
+      </c>
+      <c r="D942" t="n">
+        <v>4005.14990234375</v>
+      </c>
+      <c r="E942" t="n">
+        <v>4036.800048828125</v>
+      </c>
+      <c r="F942" t="n">
+        <v>4036.800048828125</v>
+      </c>
+      <c r="G942" t="n">
+        <v>126224</v>
+      </c>
+      <c r="H942" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I942" t="n">
+        <v>7</v>
+      </c>
+      <c r="J942" t="n">
+        <v>25</v>
+      </c>
+      <c r="K942" t="n">
+        <v>0</v>
+      </c>
+      <c r="L942" t="n">
+        <v>0</v>
+      </c>
+      <c r="M942" t="n">
+        <v>0</v>
+      </c>
+      <c r="N942" t="n">
+        <v>30</v>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+      <c r="P942" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>0</v>
+      </c>
+      <c r="R942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B943" t="n">
+        <v>4048</v>
+      </c>
+      <c r="C943" t="n">
+        <v>4085</v>
+      </c>
+      <c r="D943" t="n">
+        <v>4001</v>
+      </c>
+      <c r="E943" t="n">
+        <v>4031.75</v>
+      </c>
+      <c r="F943" t="n">
+        <v>4031.75</v>
+      </c>
+      <c r="G943" t="n">
+        <v>107096</v>
+      </c>
+      <c r="H943" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I943" t="n">
+        <v>7</v>
+      </c>
+      <c r="J943" t="n">
+        <v>26</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M943" t="n">
+        <v>0</v>
+      </c>
+      <c r="N943" t="n">
+        <v>30</v>
+      </c>
+      <c r="O943" t="n">
+        <v>0</v>
+      </c>
+      <c r="P943" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>0</v>
+      </c>
+      <c r="R943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B944" t="n">
+        <v>4031.75</v>
+      </c>
+      <c r="C944" t="n">
+        <v>4320</v>
+      </c>
+      <c r="D944" t="n">
+        <v>4031.75</v>
+      </c>
+      <c r="E944" t="n">
+        <v>4284.60009765625</v>
+      </c>
+      <c r="F944" t="n">
+        <v>4284.60009765625</v>
+      </c>
+      <c r="G944" t="n">
+        <v>493685</v>
+      </c>
+      <c r="H944" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I944" t="n">
+        <v>7</v>
+      </c>
+      <c r="J944" t="n">
+        <v>29</v>
+      </c>
+      <c r="K944" t="n">
+        <v>0</v>
+      </c>
+      <c r="L944" t="n">
+        <v>0</v>
+      </c>
+      <c r="M944" t="n">
+        <v>0</v>
+      </c>
+      <c r="N944" t="n">
+        <v>31</v>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+      <c r="P944" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>0</v>
+      </c>
+      <c r="R944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B945" t="n">
+        <v>4292</v>
+      </c>
+      <c r="C945" t="n">
+        <v>4725</v>
+      </c>
+      <c r="D945" t="n">
+        <v>4290</v>
+      </c>
+      <c r="E945" t="n">
+        <v>4695.0498046875</v>
+      </c>
+      <c r="F945" t="n">
+        <v>4695.0498046875</v>
+      </c>
+      <c r="G945" t="n">
+        <v>2391236</v>
+      </c>
+      <c r="H945" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I945" t="n">
+        <v>7</v>
+      </c>
+      <c r="J945" t="n">
+        <v>30</v>
+      </c>
+      <c r="K945" t="n">
+        <v>0</v>
+      </c>
+      <c r="L945" t="n">
+        <v>0</v>
+      </c>
+      <c r="M945" t="n">
+        <v>0</v>
+      </c>
+      <c r="N945" t="n">
+        <v>31</v>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+      <c r="P945" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>0</v>
+      </c>
+      <c r="R945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B946" t="n">
+        <v>4666.89990234375</v>
+      </c>
+      <c r="C946" t="n">
+        <v>4910</v>
+      </c>
+      <c r="D946" t="n">
+        <v>4484</v>
+      </c>
+      <c r="E946" t="n">
+        <v>4534.2001953125</v>
+      </c>
+      <c r="F946" t="n">
+        <v>4534.2001953125</v>
+      </c>
+      <c r="G946" t="n">
+        <v>1413242</v>
+      </c>
+      <c r="H946" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I946" t="n">
+        <v>7</v>
+      </c>
+      <c r="J946" t="n">
+        <v>31</v>
+      </c>
+      <c r="K946" t="n">
+        <v>0</v>
+      </c>
+      <c r="L946" t="n">
+        <v>0</v>
+      </c>
+      <c r="M946" t="n">
+        <v>0</v>
+      </c>
+      <c r="N946" t="n">
+        <v>31</v>
+      </c>
+      <c r="O946" t="n">
+        <v>0</v>
+      </c>
+      <c r="P946" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>0</v>
+      </c>
+      <c r="R946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B947" t="n">
+        <v>4525</v>
+      </c>
+      <c r="C947" t="n">
+        <v>4525</v>
+      </c>
+      <c r="D947" t="n">
+        <v>4395.10009765625</v>
+      </c>
+      <c r="E947" t="n">
+        <v>4414.2998046875</v>
+      </c>
+      <c r="F947" t="n">
+        <v>4414.2998046875</v>
+      </c>
+      <c r="G947" t="n">
+        <v>417581</v>
+      </c>
+      <c r="H947" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I947" t="n">
+        <v>8</v>
+      </c>
+      <c r="J947" t="n">
+        <v>1</v>
+      </c>
+      <c r="K947" t="n">
+        <v>0</v>
+      </c>
+      <c r="L947" t="n">
+        <v>0</v>
+      </c>
+      <c r="M947" t="n">
+        <v>0</v>
+      </c>
+      <c r="N947" t="n">
+        <v>31</v>
+      </c>
+      <c r="O947" t="n">
+        <v>0</v>
+      </c>
+      <c r="P947" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>0</v>
+      </c>
+      <c r="R947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B948" t="n">
+        <v>4369.0498046875</v>
+      </c>
+      <c r="C948" t="n">
+        <v>4435.64990234375</v>
+      </c>
+      <c r="D948" t="n">
+        <v>4340.2001953125</v>
+      </c>
+      <c r="E948" t="n">
+        <v>4368.5</v>
+      </c>
+      <c r="F948" t="n">
+        <v>4368.5</v>
+      </c>
+      <c r="G948" t="n">
+        <v>458076</v>
+      </c>
+      <c r="H948" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I948" t="n">
+        <v>8</v>
+      </c>
+      <c r="J948" t="n">
+        <v>2</v>
+      </c>
+      <c r="K948" t="n">
+        <v>0</v>
+      </c>
+      <c r="L948" t="n">
+        <v>0</v>
+      </c>
+      <c r="M948" t="n">
+        <v>0</v>
+      </c>
+      <c r="N948" t="n">
+        <v>31</v>
+      </c>
+      <c r="O948" t="n">
+        <v>0</v>
+      </c>
+      <c r="P948" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>0</v>
+      </c>
+      <c r="R948" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R948"/>
+  <dimension ref="A1:R953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53053,7 +53053,9 @@
       <c r="Q939" t="n">
         <v>0</v>
       </c>
-      <c r="R939" t="inlineStr"/>
+      <c r="R939" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
@@ -53107,7 +53109,9 @@
       <c r="Q940" t="n">
         <v>0</v>
       </c>
-      <c r="R940" t="inlineStr"/>
+      <c r="R940" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
@@ -53161,7 +53165,9 @@
       <c r="Q941" t="n">
         <v>0</v>
       </c>
-      <c r="R941" t="inlineStr"/>
+      <c r="R941" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
@@ -53215,7 +53221,9 @@
       <c r="Q942" t="n">
         <v>0</v>
       </c>
-      <c r="R942" t="inlineStr"/>
+      <c r="R942" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
@@ -53269,7 +53277,9 @@
       <c r="Q943" t="n">
         <v>0</v>
       </c>
-      <c r="R943" t="inlineStr"/>
+      <c r="R943" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
@@ -53323,7 +53333,9 @@
       <c r="Q944" t="n">
         <v>0</v>
       </c>
-      <c r="R944" t="inlineStr"/>
+      <c r="R944" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
@@ -53377,7 +53389,9 @@
       <c r="Q945" t="n">
         <v>0</v>
       </c>
-      <c r="R945" t="inlineStr"/>
+      <c r="R945" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
@@ -53431,7 +53445,9 @@
       <c r="Q946" t="n">
         <v>0</v>
       </c>
-      <c r="R946" t="inlineStr"/>
+      <c r="R946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
@@ -53485,7 +53501,9 @@
       <c r="Q947" t="n">
         <v>0</v>
       </c>
-      <c r="R947" t="inlineStr"/>
+      <c r="R947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
@@ -53539,7 +53557,279 @@
       <c r="Q948" t="n">
         <v>0</v>
       </c>
-      <c r="R948" t="inlineStr"/>
+      <c r="R948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B949" t="n">
+        <v>4310</v>
+      </c>
+      <c r="C949" t="n">
+        <v>4311</v>
+      </c>
+      <c r="D949" t="n">
+        <v>3913.25</v>
+      </c>
+      <c r="E949" t="n">
+        <v>3991.14990234375</v>
+      </c>
+      <c r="F949" t="n">
+        <v>3991.14990234375</v>
+      </c>
+      <c r="G949" t="n">
+        <v>958853</v>
+      </c>
+      <c r="H949" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I949" t="n">
+        <v>8</v>
+      </c>
+      <c r="J949" t="n">
+        <v>5</v>
+      </c>
+      <c r="K949" t="n">
+        <v>0</v>
+      </c>
+      <c r="L949" t="n">
+        <v>0</v>
+      </c>
+      <c r="M949" t="n">
+        <v>0</v>
+      </c>
+      <c r="N949" t="n">
+        <v>32</v>
+      </c>
+      <c r="O949" t="n">
+        <v>0</v>
+      </c>
+      <c r="P949" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>0</v>
+      </c>
+      <c r="R949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B950" t="n">
+        <v>4004</v>
+      </c>
+      <c r="C950" t="n">
+        <v>4081.300048828125</v>
+      </c>
+      <c r="D950" t="n">
+        <v>3850</v>
+      </c>
+      <c r="E950" t="n">
+        <v>3880.14990234375</v>
+      </c>
+      <c r="F950" t="n">
+        <v>3880.14990234375</v>
+      </c>
+      <c r="G950" t="n">
+        <v>856608</v>
+      </c>
+      <c r="H950" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I950" t="n">
+        <v>8</v>
+      </c>
+      <c r="J950" t="n">
+        <v>6</v>
+      </c>
+      <c r="K950" t="n">
+        <v>0</v>
+      </c>
+      <c r="L950" t="n">
+        <v>0</v>
+      </c>
+      <c r="M950" t="n">
+        <v>0</v>
+      </c>
+      <c r="N950" t="n">
+        <v>32</v>
+      </c>
+      <c r="O950" t="n">
+        <v>0</v>
+      </c>
+      <c r="P950" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>0</v>
+      </c>
+      <c r="R950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B951" t="n">
+        <v>4038</v>
+      </c>
+      <c r="C951" t="n">
+        <v>4214</v>
+      </c>
+      <c r="D951" t="n">
+        <v>3980</v>
+      </c>
+      <c r="E951" t="n">
+        <v>4133.9501953125</v>
+      </c>
+      <c r="F951" t="n">
+        <v>4133.9501953125</v>
+      </c>
+      <c r="G951" t="n">
+        <v>1632840</v>
+      </c>
+      <c r="H951" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I951" t="n">
+        <v>8</v>
+      </c>
+      <c r="J951" t="n">
+        <v>7</v>
+      </c>
+      <c r="K951" t="n">
+        <v>0</v>
+      </c>
+      <c r="L951" t="n">
+        <v>0</v>
+      </c>
+      <c r="M951" t="n">
+        <v>0</v>
+      </c>
+      <c r="N951" t="n">
+        <v>32</v>
+      </c>
+      <c r="O951" t="n">
+        <v>0</v>
+      </c>
+      <c r="P951" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>0</v>
+      </c>
+      <c r="R951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B952" t="n">
+        <v>4208.5</v>
+      </c>
+      <c r="C952" t="n">
+        <v>4376.2001953125</v>
+      </c>
+      <c r="D952" t="n">
+        <v>4170.85009765625</v>
+      </c>
+      <c r="E952" t="n">
+        <v>4254.5498046875</v>
+      </c>
+      <c r="F952" t="n">
+        <v>4254.5498046875</v>
+      </c>
+      <c r="G952" t="n">
+        <v>1061607</v>
+      </c>
+      <c r="H952" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I952" t="n">
+        <v>8</v>
+      </c>
+      <c r="J952" t="n">
+        <v>8</v>
+      </c>
+      <c r="K952" t="n">
+        <v>0</v>
+      </c>
+      <c r="L952" t="n">
+        <v>0</v>
+      </c>
+      <c r="M952" t="n">
+        <v>0</v>
+      </c>
+      <c r="N952" t="n">
+        <v>32</v>
+      </c>
+      <c r="O952" t="n">
+        <v>0</v>
+      </c>
+      <c r="P952" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>0</v>
+      </c>
+      <c r="R952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B953" t="n">
+        <v>4340</v>
+      </c>
+      <c r="C953" t="n">
+        <v>4440</v>
+      </c>
+      <c r="D953" t="n">
+        <v>4322.7001953125</v>
+      </c>
+      <c r="E953" t="n">
+        <v>4370.75</v>
+      </c>
+      <c r="F953" t="n">
+        <v>4370.75</v>
+      </c>
+      <c r="G953" t="n">
+        <v>600245</v>
+      </c>
+      <c r="H953" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I953" t="n">
+        <v>8</v>
+      </c>
+      <c r="J953" t="n">
+        <v>9</v>
+      </c>
+      <c r="K953" t="n">
+        <v>0</v>
+      </c>
+      <c r="L953" t="n">
+        <v>0</v>
+      </c>
+      <c r="M953" t="n">
+        <v>0</v>
+      </c>
+      <c r="N953" t="n">
+        <v>32</v>
+      </c>
+      <c r="O953" t="n">
+        <v>0</v>
+      </c>
+      <c r="P953" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>0</v>
+      </c>
+      <c r="R953" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R953"/>
+  <dimension ref="A1:R957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53437,7 +53437,7 @@
         <v>31</v>
       </c>
       <c r="O946" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P946" t="n">
         <v>0</v>
@@ -53613,7 +53613,9 @@
       <c r="Q949" t="n">
         <v>0</v>
       </c>
-      <c r="R949" t="inlineStr"/>
+      <c r="R949" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
@@ -53667,7 +53669,9 @@
       <c r="Q950" t="n">
         <v>0</v>
       </c>
-      <c r="R950" t="inlineStr"/>
+      <c r="R950" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
@@ -53721,7 +53725,9 @@
       <c r="Q951" t="n">
         <v>0</v>
       </c>
-      <c r="R951" t="inlineStr"/>
+      <c r="R951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
@@ -53775,7 +53781,9 @@
       <c r="Q952" t="n">
         <v>0</v>
       </c>
-      <c r="R952" t="inlineStr"/>
+      <c r="R952" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
@@ -53829,7 +53837,225 @@
       <c r="Q953" t="n">
         <v>0</v>
       </c>
-      <c r="R953" t="inlineStr"/>
+      <c r="R953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B954" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C954" t="n">
+        <v>4400.10009765625</v>
+      </c>
+      <c r="D954" t="n">
+        <v>4220.5498046875</v>
+      </c>
+      <c r="E954" t="n">
+        <v>4261.10009765625</v>
+      </c>
+      <c r="F954" t="n">
+        <v>4261.10009765625</v>
+      </c>
+      <c r="G954" t="n">
+        <v>411217</v>
+      </c>
+      <c r="H954" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I954" t="n">
+        <v>8</v>
+      </c>
+      <c r="J954" t="n">
+        <v>12</v>
+      </c>
+      <c r="K954" t="n">
+        <v>0</v>
+      </c>
+      <c r="L954" t="n">
+        <v>0</v>
+      </c>
+      <c r="M954" t="n">
+        <v>0</v>
+      </c>
+      <c r="N954" t="n">
+        <v>33</v>
+      </c>
+      <c r="O954" t="n">
+        <v>0</v>
+      </c>
+      <c r="P954" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>0</v>
+      </c>
+      <c r="R954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B955" t="n">
+        <v>4265</v>
+      </c>
+      <c r="C955" t="n">
+        <v>4329</v>
+      </c>
+      <c r="D955" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E955" t="n">
+        <v>4123.85009765625</v>
+      </c>
+      <c r="F955" t="n">
+        <v>4123.85009765625</v>
+      </c>
+      <c r="G955" t="n">
+        <v>329880</v>
+      </c>
+      <c r="H955" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I955" t="n">
+        <v>8</v>
+      </c>
+      <c r="J955" t="n">
+        <v>13</v>
+      </c>
+      <c r="K955" t="n">
+        <v>0</v>
+      </c>
+      <c r="L955" t="n">
+        <v>0</v>
+      </c>
+      <c r="M955" t="n">
+        <v>0</v>
+      </c>
+      <c r="N955" t="n">
+        <v>33</v>
+      </c>
+      <c r="O955" t="n">
+        <v>0</v>
+      </c>
+      <c r="P955" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>0</v>
+      </c>
+      <c r="R955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B956" t="n">
+        <v>4178.85009765625</v>
+      </c>
+      <c r="C956" t="n">
+        <v>4253.89990234375</v>
+      </c>
+      <c r="D956" t="n">
+        <v>4091.14990234375</v>
+      </c>
+      <c r="E956" t="n">
+        <v>4168.75</v>
+      </c>
+      <c r="F956" t="n">
+        <v>4168.75</v>
+      </c>
+      <c r="G956" t="n">
+        <v>392422</v>
+      </c>
+      <c r="H956" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I956" t="n">
+        <v>8</v>
+      </c>
+      <c r="J956" t="n">
+        <v>14</v>
+      </c>
+      <c r="K956" t="n">
+        <v>0</v>
+      </c>
+      <c r="L956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M956" t="n">
+        <v>0</v>
+      </c>
+      <c r="N956" t="n">
+        <v>33</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
+      <c r="R956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B957" t="n">
+        <v>4166.4501953125</v>
+      </c>
+      <c r="C957" t="n">
+        <v>4325</v>
+      </c>
+      <c r="D957" t="n">
+        <v>4160.0498046875</v>
+      </c>
+      <c r="E957" t="n">
+        <v>4272.7001953125</v>
+      </c>
+      <c r="F957" t="n">
+        <v>4272.7001953125</v>
+      </c>
+      <c r="G957" t="n">
+        <v>434466</v>
+      </c>
+      <c r="H957" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I957" t="n">
+        <v>8</v>
+      </c>
+      <c r="J957" t="n">
+        <v>16</v>
+      </c>
+      <c r="K957" t="n">
+        <v>0</v>
+      </c>
+      <c r="L957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M957" t="n">
+        <v>0</v>
+      </c>
+      <c r="N957" t="n">
+        <v>33</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
+      <c r="R957" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R957"/>
+  <dimension ref="A1:R962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53893,7 +53893,9 @@
       <c r="Q954" t="n">
         <v>0</v>
       </c>
-      <c r="R954" t="inlineStr"/>
+      <c r="R954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
@@ -53947,7 +53949,9 @@
       <c r="Q955" t="n">
         <v>0</v>
       </c>
-      <c r="R955" t="inlineStr"/>
+      <c r="R955" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
@@ -54001,7 +54005,9 @@
       <c r="Q956" t="n">
         <v>0</v>
       </c>
-      <c r="R956" t="inlineStr"/>
+      <c r="R956" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
@@ -54055,7 +54061,279 @@
       <c r="Q957" t="n">
         <v>0</v>
       </c>
-      <c r="R957" t="inlineStr"/>
+      <c r="R957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B958" t="n">
+        <v>4390</v>
+      </c>
+      <c r="C958" t="n">
+        <v>4638</v>
+      </c>
+      <c r="D958" t="n">
+        <v>4313.25</v>
+      </c>
+      <c r="E958" t="n">
+        <v>4546.89990234375</v>
+      </c>
+      <c r="F958" t="n">
+        <v>4546.89990234375</v>
+      </c>
+      <c r="G958" t="n">
+        <v>1257066</v>
+      </c>
+      <c r="H958" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I958" t="n">
+        <v>8</v>
+      </c>
+      <c r="J958" t="n">
+        <v>19</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0</v>
+      </c>
+      <c r="L958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M958" t="n">
+        <v>0</v>
+      </c>
+      <c r="N958" t="n">
+        <v>34</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P958" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
+      <c r="R958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B959" t="n">
+        <v>4598.60009765625</v>
+      </c>
+      <c r="C959" t="n">
+        <v>4638.89990234375</v>
+      </c>
+      <c r="D959" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E959" t="n">
+        <v>4410.0498046875</v>
+      </c>
+      <c r="F959" t="n">
+        <v>4410.0498046875</v>
+      </c>
+      <c r="G959" t="n">
+        <v>474648</v>
+      </c>
+      <c r="H959" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I959" t="n">
+        <v>8</v>
+      </c>
+      <c r="J959" t="n">
+        <v>20</v>
+      </c>
+      <c r="K959" t="n">
+        <v>0</v>
+      </c>
+      <c r="L959" t="n">
+        <v>0</v>
+      </c>
+      <c r="M959" t="n">
+        <v>0</v>
+      </c>
+      <c r="N959" t="n">
+        <v>34</v>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+      <c r="P959" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>0</v>
+      </c>
+      <c r="R959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B960" t="n">
+        <v>4442</v>
+      </c>
+      <c r="C960" t="n">
+        <v>4540</v>
+      </c>
+      <c r="D960" t="n">
+        <v>4395.35009765625</v>
+      </c>
+      <c r="E960" t="n">
+        <v>4488.89990234375</v>
+      </c>
+      <c r="F960" t="n">
+        <v>4488.89990234375</v>
+      </c>
+      <c r="G960" t="n">
+        <v>354671</v>
+      </c>
+      <c r="H960" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I960" t="n">
+        <v>8</v>
+      </c>
+      <c r="J960" t="n">
+        <v>21</v>
+      </c>
+      <c r="K960" t="n">
+        <v>0</v>
+      </c>
+      <c r="L960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M960" t="n">
+        <v>0</v>
+      </c>
+      <c r="N960" t="n">
+        <v>34</v>
+      </c>
+      <c r="O960" t="n">
+        <v>0</v>
+      </c>
+      <c r="P960" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>0</v>
+      </c>
+      <c r="R960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B961" t="n">
+        <v>4518</v>
+      </c>
+      <c r="C961" t="n">
+        <v>4556.89990234375</v>
+      </c>
+      <c r="D961" t="n">
+        <v>4352.5498046875</v>
+      </c>
+      <c r="E961" t="n">
+        <v>4387.89990234375</v>
+      </c>
+      <c r="F961" t="n">
+        <v>4387.89990234375</v>
+      </c>
+      <c r="G961" t="n">
+        <v>319859</v>
+      </c>
+      <c r="H961" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I961" t="n">
+        <v>8</v>
+      </c>
+      <c r="J961" t="n">
+        <v>22</v>
+      </c>
+      <c r="K961" t="n">
+        <v>0</v>
+      </c>
+      <c r="L961" t="n">
+        <v>0</v>
+      </c>
+      <c r="M961" t="n">
+        <v>0</v>
+      </c>
+      <c r="N961" t="n">
+        <v>34</v>
+      </c>
+      <c r="O961" t="n">
+        <v>0</v>
+      </c>
+      <c r="P961" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>0</v>
+      </c>
+      <c r="R961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B962" t="n">
+        <v>4413</v>
+      </c>
+      <c r="C962" t="n">
+        <v>4460</v>
+      </c>
+      <c r="D962" t="n">
+        <v>4380.10009765625</v>
+      </c>
+      <c r="E962" t="n">
+        <v>4449.2998046875</v>
+      </c>
+      <c r="F962" t="n">
+        <v>4449.2998046875</v>
+      </c>
+      <c r="G962" t="n">
+        <v>221699</v>
+      </c>
+      <c r="H962" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I962" t="n">
+        <v>8</v>
+      </c>
+      <c r="J962" t="n">
+        <v>23</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0</v>
+      </c>
+      <c r="L962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M962" t="n">
+        <v>0</v>
+      </c>
+      <c r="N962" t="n">
+        <v>34</v>
+      </c>
+      <c r="O962" t="n">
+        <v>0</v>
+      </c>
+      <c r="P962" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>0</v>
+      </c>
+      <c r="R962" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R962"/>
+  <dimension ref="A1:R967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54117,7 +54117,9 @@
       <c r="Q958" t="n">
         <v>0</v>
       </c>
-      <c r="R958" t="inlineStr"/>
+      <c r="R958" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
@@ -54171,7 +54173,9 @@
       <c r="Q959" t="n">
         <v>0</v>
       </c>
-      <c r="R959" t="inlineStr"/>
+      <c r="R959" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
@@ -54225,7 +54229,9 @@
       <c r="Q960" t="n">
         <v>0</v>
       </c>
-      <c r="R960" t="inlineStr"/>
+      <c r="R960" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
@@ -54279,7 +54285,9 @@
       <c r="Q961" t="n">
         <v>0</v>
       </c>
-      <c r="R961" t="inlineStr"/>
+      <c r="R961" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
@@ -54333,7 +54341,279 @@
       <c r="Q962" t="n">
         <v>0</v>
       </c>
-      <c r="R962" t="inlineStr"/>
+      <c r="R962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B963" t="n">
+        <v>4434</v>
+      </c>
+      <c r="C963" t="n">
+        <v>4575.2001953125</v>
+      </c>
+      <c r="D963" t="n">
+        <v>4396</v>
+      </c>
+      <c r="E963" t="n">
+        <v>4434.2001953125</v>
+      </c>
+      <c r="F963" t="n">
+        <v>4434.2001953125</v>
+      </c>
+      <c r="G963" t="n">
+        <v>359301</v>
+      </c>
+      <c r="H963" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I963" t="n">
+        <v>8</v>
+      </c>
+      <c r="J963" t="n">
+        <v>26</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0</v>
+      </c>
+      <c r="L963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M963" t="n">
+        <v>0</v>
+      </c>
+      <c r="N963" t="n">
+        <v>35</v>
+      </c>
+      <c r="O963" t="n">
+        <v>0</v>
+      </c>
+      <c r="P963" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>0</v>
+      </c>
+      <c r="R963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B964" t="n">
+        <v>4430</v>
+      </c>
+      <c r="C964" t="n">
+        <v>4430</v>
+      </c>
+      <c r="D964" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E964" t="n">
+        <v>4378.0498046875</v>
+      </c>
+      <c r="F964" t="n">
+        <v>4378.0498046875</v>
+      </c>
+      <c r="G964" t="n">
+        <v>205496</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I964" t="n">
+        <v>8</v>
+      </c>
+      <c r="J964" t="n">
+        <v>27</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>0</v>
+      </c>
+      <c r="N964" t="n">
+        <v>35</v>
+      </c>
+      <c r="O964" t="n">
+        <v>0</v>
+      </c>
+      <c r="P964" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>0</v>
+      </c>
+      <c r="R964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B965" t="n">
+        <v>4418</v>
+      </c>
+      <c r="C965" t="n">
+        <v>4439.9501953125</v>
+      </c>
+      <c r="D965" t="n">
+        <v>4325.7998046875</v>
+      </c>
+      <c r="E965" t="n">
+        <v>4337.9501953125</v>
+      </c>
+      <c r="F965" t="n">
+        <v>4337.9501953125</v>
+      </c>
+      <c r="G965" t="n">
+        <v>189642</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I965" t="n">
+        <v>8</v>
+      </c>
+      <c r="J965" t="n">
+        <v>28</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0</v>
+      </c>
+      <c r="L965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M965" t="n">
+        <v>0</v>
+      </c>
+      <c r="N965" t="n">
+        <v>35</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P965" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>0</v>
+      </c>
+      <c r="R965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B966" t="n">
+        <v>4346.89990234375</v>
+      </c>
+      <c r="C966" t="n">
+        <v>4418.89990234375</v>
+      </c>
+      <c r="D966" t="n">
+        <v>4309</v>
+      </c>
+      <c r="E966" t="n">
+        <v>4336.2001953125</v>
+      </c>
+      <c r="F966" t="n">
+        <v>4336.2001953125</v>
+      </c>
+      <c r="G966" t="n">
+        <v>150538</v>
+      </c>
+      <c r="H966" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I966" t="n">
+        <v>8</v>
+      </c>
+      <c r="J966" t="n">
+        <v>29</v>
+      </c>
+      <c r="K966" t="n">
+        <v>0</v>
+      </c>
+      <c r="L966" t="n">
+        <v>0</v>
+      </c>
+      <c r="M966" t="n">
+        <v>0</v>
+      </c>
+      <c r="N966" t="n">
+        <v>35</v>
+      </c>
+      <c r="O966" t="n">
+        <v>0</v>
+      </c>
+      <c r="P966" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>0</v>
+      </c>
+      <c r="R966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B967" t="n">
+        <v>4366.9501953125</v>
+      </c>
+      <c r="C967" t="n">
+        <v>4389</v>
+      </c>
+      <c r="D967" t="n">
+        <v>4218.35009765625</v>
+      </c>
+      <c r="E967" t="n">
+        <v>4261.25</v>
+      </c>
+      <c r="F967" t="n">
+        <v>4261.25</v>
+      </c>
+      <c r="G967" t="n">
+        <v>170141</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I967" t="n">
+        <v>8</v>
+      </c>
+      <c r="J967" t="n">
+        <v>30</v>
+      </c>
+      <c r="K967" t="n">
+        <v>0</v>
+      </c>
+      <c r="L967" t="n">
+        <v>0</v>
+      </c>
+      <c r="M967" t="n">
+        <v>0</v>
+      </c>
+      <c r="N967" t="n">
+        <v>35</v>
+      </c>
+      <c r="O967" t="n">
+        <v>0</v>
+      </c>
+      <c r="P967" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>0</v>
+      </c>
+      <c r="R967" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R967"/>
+  <dimension ref="A1:R972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54165,7 +54165,7 @@
         <v>34</v>
       </c>
       <c r="O959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P959" t="n">
         <v>0</v>
@@ -54397,7 +54397,9 @@
       <c r="Q963" t="n">
         <v>0</v>
       </c>
-      <c r="R963" t="inlineStr"/>
+      <c r="R963" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
@@ -54451,7 +54453,9 @@
       <c r="Q964" t="n">
         <v>0</v>
       </c>
-      <c r="R964" t="inlineStr"/>
+      <c r="R964" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
@@ -54505,7 +54509,9 @@
       <c r="Q965" t="n">
         <v>0</v>
       </c>
-      <c r="R965" t="inlineStr"/>
+      <c r="R965" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
@@ -54559,7 +54565,9 @@
       <c r="Q966" t="n">
         <v>0</v>
       </c>
-      <c r="R966" t="inlineStr"/>
+      <c r="R966" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
@@ -54613,7 +54621,279 @@
       <c r="Q967" t="n">
         <v>0</v>
       </c>
-      <c r="R967" t="inlineStr"/>
+      <c r="R967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B968" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C968" t="n">
+        <v>4449</v>
+      </c>
+      <c r="D968" t="n">
+        <v>4273.85009765625</v>
+      </c>
+      <c r="E968" t="n">
+        <v>4418.10009765625</v>
+      </c>
+      <c r="F968" t="n">
+        <v>4418.10009765625</v>
+      </c>
+      <c r="G968" t="n">
+        <v>296302</v>
+      </c>
+      <c r="H968" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I968" t="n">
+        <v>9</v>
+      </c>
+      <c r="J968" t="n">
+        <v>2</v>
+      </c>
+      <c r="K968" t="n">
+        <v>0</v>
+      </c>
+      <c r="L968" t="n">
+        <v>0</v>
+      </c>
+      <c r="M968" t="n">
+        <v>0</v>
+      </c>
+      <c r="N968" t="n">
+        <v>36</v>
+      </c>
+      <c r="O968" t="n">
+        <v>0</v>
+      </c>
+      <c r="P968" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>0</v>
+      </c>
+      <c r="R968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B969" t="n">
+        <v>4444</v>
+      </c>
+      <c r="C969" t="n">
+        <v>4444</v>
+      </c>
+      <c r="D969" t="n">
+        <v>4360</v>
+      </c>
+      <c r="E969" t="n">
+        <v>4378.89990234375</v>
+      </c>
+      <c r="F969" t="n">
+        <v>4378.89990234375</v>
+      </c>
+      <c r="G969" t="n">
+        <v>126821</v>
+      </c>
+      <c r="H969" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I969" t="n">
+        <v>9</v>
+      </c>
+      <c r="J969" t="n">
+        <v>3</v>
+      </c>
+      <c r="K969" t="n">
+        <v>0</v>
+      </c>
+      <c r="L969" t="n">
+        <v>0</v>
+      </c>
+      <c r="M969" t="n">
+        <v>0</v>
+      </c>
+      <c r="N969" t="n">
+        <v>36</v>
+      </c>
+      <c r="O969" t="n">
+        <v>0</v>
+      </c>
+      <c r="P969" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>0</v>
+      </c>
+      <c r="R969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B970" t="n">
+        <v>4335</v>
+      </c>
+      <c r="C970" t="n">
+        <v>4509</v>
+      </c>
+      <c r="D970" t="n">
+        <v>4312.89990234375</v>
+      </c>
+      <c r="E970" t="n">
+        <v>4436.35009765625</v>
+      </c>
+      <c r="F970" t="n">
+        <v>4436.35009765625</v>
+      </c>
+      <c r="G970" t="n">
+        <v>335076</v>
+      </c>
+      <c r="H970" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I970" t="n">
+        <v>9</v>
+      </c>
+      <c r="J970" t="n">
+        <v>4</v>
+      </c>
+      <c r="K970" t="n">
+        <v>0</v>
+      </c>
+      <c r="L970" t="n">
+        <v>0</v>
+      </c>
+      <c r="M970" t="n">
+        <v>0</v>
+      </c>
+      <c r="N970" t="n">
+        <v>36</v>
+      </c>
+      <c r="O970" t="n">
+        <v>0</v>
+      </c>
+      <c r="P970" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>2</v>
+      </c>
+      <c r="R970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B971" t="n">
+        <v>4465</v>
+      </c>
+      <c r="C971" t="n">
+        <v>4503</v>
+      </c>
+      <c r="D971" t="n">
+        <v>4404.0498046875</v>
+      </c>
+      <c r="E971" t="n">
+        <v>4417.75</v>
+      </c>
+      <c r="F971" t="n">
+        <v>4417.75</v>
+      </c>
+      <c r="G971" t="n">
+        <v>236734</v>
+      </c>
+      <c r="H971" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I971" t="n">
+        <v>9</v>
+      </c>
+      <c r="J971" t="n">
+        <v>5</v>
+      </c>
+      <c r="K971" t="n">
+        <v>0</v>
+      </c>
+      <c r="L971" t="n">
+        <v>0</v>
+      </c>
+      <c r="M971" t="n">
+        <v>0</v>
+      </c>
+      <c r="N971" t="n">
+        <v>36</v>
+      </c>
+      <c r="O971" t="n">
+        <v>0</v>
+      </c>
+      <c r="P971" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>0</v>
+      </c>
+      <c r="R971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B972" t="n">
+        <v>4449</v>
+      </c>
+      <c r="C972" t="n">
+        <v>4449</v>
+      </c>
+      <c r="D972" t="n">
+        <v>4328</v>
+      </c>
+      <c r="E972" t="n">
+        <v>4340.75</v>
+      </c>
+      <c r="F972" t="n">
+        <v>4340.75</v>
+      </c>
+      <c r="G972" t="n">
+        <v>122612</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I972" t="n">
+        <v>9</v>
+      </c>
+      <c r="J972" t="n">
+        <v>6</v>
+      </c>
+      <c r="K972" t="n">
+        <v>0</v>
+      </c>
+      <c r="L972" t="n">
+        <v>0</v>
+      </c>
+      <c r="M972" t="n">
+        <v>0</v>
+      </c>
+      <c r="N972" t="n">
+        <v>36</v>
+      </c>
+      <c r="O972" t="n">
+        <v>0</v>
+      </c>
+      <c r="P972" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>0</v>
+      </c>
+      <c r="R972" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R972"/>
+  <dimension ref="A1:R977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54677,7 +54677,9 @@
       <c r="Q968" t="n">
         <v>0</v>
       </c>
-      <c r="R968" t="inlineStr"/>
+      <c r="R968" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
@@ -54731,7 +54733,9 @@
       <c r="Q969" t="n">
         <v>0</v>
       </c>
-      <c r="R969" t="inlineStr"/>
+      <c r="R969" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
@@ -54785,7 +54789,9 @@
       <c r="Q970" t="n">
         <v>2</v>
       </c>
-      <c r="R970" t="inlineStr"/>
+      <c r="R970" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
@@ -54839,7 +54845,9 @@
       <c r="Q971" t="n">
         <v>0</v>
       </c>
-      <c r="R971" t="inlineStr"/>
+      <c r="R971" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
@@ -54893,7 +54901,279 @@
       <c r="Q972" t="n">
         <v>0</v>
       </c>
-      <c r="R972" t="inlineStr"/>
+      <c r="R972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B973" t="n">
+        <v>4321</v>
+      </c>
+      <c r="C973" t="n">
+        <v>4339.89990234375</v>
+      </c>
+      <c r="D973" t="n">
+        <v>4234.60009765625</v>
+      </c>
+      <c r="E973" t="n">
+        <v>4247.9501953125</v>
+      </c>
+      <c r="F973" t="n">
+        <v>4247.9501953125</v>
+      </c>
+      <c r="G973" t="n">
+        <v>134259</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I973" t="n">
+        <v>9</v>
+      </c>
+      <c r="J973" t="n">
+        <v>9</v>
+      </c>
+      <c r="K973" t="n">
+        <v>0</v>
+      </c>
+      <c r="L973" t="n">
+        <v>0</v>
+      </c>
+      <c r="M973" t="n">
+        <v>0</v>
+      </c>
+      <c r="N973" t="n">
+        <v>37</v>
+      </c>
+      <c r="O973" t="n">
+        <v>0</v>
+      </c>
+      <c r="P973" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>0</v>
+      </c>
+      <c r="R973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B974" t="n">
+        <v>4285</v>
+      </c>
+      <c r="C974" t="n">
+        <v>4298</v>
+      </c>
+      <c r="D974" t="n">
+        <v>4240</v>
+      </c>
+      <c r="E974" t="n">
+        <v>4252.2001953125</v>
+      </c>
+      <c r="F974" t="n">
+        <v>4252.2001953125</v>
+      </c>
+      <c r="G974" t="n">
+        <v>128634</v>
+      </c>
+      <c r="H974" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I974" t="n">
+        <v>9</v>
+      </c>
+      <c r="J974" t="n">
+        <v>10</v>
+      </c>
+      <c r="K974" t="n">
+        <v>0</v>
+      </c>
+      <c r="L974" t="n">
+        <v>0</v>
+      </c>
+      <c r="M974" t="n">
+        <v>0</v>
+      </c>
+      <c r="N974" t="n">
+        <v>37</v>
+      </c>
+      <c r="O974" t="n">
+        <v>0</v>
+      </c>
+      <c r="P974" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>0</v>
+      </c>
+      <c r="R974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B975" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C975" t="n">
+        <v>4433.25</v>
+      </c>
+      <c r="D975" t="n">
+        <v>4292.89990234375</v>
+      </c>
+      <c r="E975" t="n">
+        <v>4370.60009765625</v>
+      </c>
+      <c r="F975" t="n">
+        <v>4370.60009765625</v>
+      </c>
+      <c r="G975" t="n">
+        <v>473950</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I975" t="n">
+        <v>9</v>
+      </c>
+      <c r="J975" t="n">
+        <v>11</v>
+      </c>
+      <c r="K975" t="n">
+        <v>0</v>
+      </c>
+      <c r="L975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M975" t="n">
+        <v>0</v>
+      </c>
+      <c r="N975" t="n">
+        <v>37</v>
+      </c>
+      <c r="O975" t="n">
+        <v>0</v>
+      </c>
+      <c r="P975" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>0</v>
+      </c>
+      <c r="R975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B976" t="n">
+        <v>4407</v>
+      </c>
+      <c r="C976" t="n">
+        <v>4424</v>
+      </c>
+      <c r="D976" t="n">
+        <v>4375</v>
+      </c>
+      <c r="E976" t="n">
+        <v>4411.10009765625</v>
+      </c>
+      <c r="F976" t="n">
+        <v>4411.10009765625</v>
+      </c>
+      <c r="G976" t="n">
+        <v>122320</v>
+      </c>
+      <c r="H976" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I976" t="n">
+        <v>9</v>
+      </c>
+      <c r="J976" t="n">
+        <v>12</v>
+      </c>
+      <c r="K976" t="n">
+        <v>0</v>
+      </c>
+      <c r="L976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M976" t="n">
+        <v>0</v>
+      </c>
+      <c r="N976" t="n">
+        <v>37</v>
+      </c>
+      <c r="O976" t="n">
+        <v>0</v>
+      </c>
+      <c r="P976" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>0</v>
+      </c>
+      <c r="R976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B977" t="n">
+        <v>4429</v>
+      </c>
+      <c r="C977" t="n">
+        <v>4463.64990234375</v>
+      </c>
+      <c r="D977" t="n">
+        <v>4375.0498046875</v>
+      </c>
+      <c r="E977" t="n">
+        <v>4401.25</v>
+      </c>
+      <c r="F977" t="n">
+        <v>4401.25</v>
+      </c>
+      <c r="G977" t="n">
+        <v>103279</v>
+      </c>
+      <c r="H977" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I977" t="n">
+        <v>9</v>
+      </c>
+      <c r="J977" t="n">
+        <v>13</v>
+      </c>
+      <c r="K977" t="n">
+        <v>0</v>
+      </c>
+      <c r="L977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M977" t="n">
+        <v>0</v>
+      </c>
+      <c r="N977" t="n">
+        <v>37</v>
+      </c>
+      <c r="O977" t="n">
+        <v>0</v>
+      </c>
+      <c r="P977" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>0</v>
+      </c>
+      <c r="R977" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R977"/>
+  <dimension ref="A1:R982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54957,7 +54957,9 @@
       <c r="Q973" t="n">
         <v>0</v>
       </c>
-      <c r="R973" t="inlineStr"/>
+      <c r="R973" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
@@ -55011,7 +55013,9 @@
       <c r="Q974" t="n">
         <v>0</v>
       </c>
-      <c r="R974" t="inlineStr"/>
+      <c r="R974" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
@@ -55065,7 +55069,9 @@
       <c r="Q975" t="n">
         <v>0</v>
       </c>
-      <c r="R975" t="inlineStr"/>
+      <c r="R975" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
@@ -55119,7 +55125,9 @@
       <c r="Q976" t="n">
         <v>0</v>
       </c>
-      <c r="R976" t="inlineStr"/>
+      <c r="R976" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
@@ -55173,7 +55181,279 @@
       <c r="Q977" t="n">
         <v>0</v>
       </c>
-      <c r="R977" t="inlineStr"/>
+      <c r="R977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B978" t="n">
+        <v>4417</v>
+      </c>
+      <c r="C978" t="n">
+        <v>4544</v>
+      </c>
+      <c r="D978" t="n">
+        <v>4377.14990234375</v>
+      </c>
+      <c r="E978" t="n">
+        <v>4520.2998046875</v>
+      </c>
+      <c r="F978" t="n">
+        <v>4520.2998046875</v>
+      </c>
+      <c r="G978" t="n">
+        <v>425294</v>
+      </c>
+      <c r="H978" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I978" t="n">
+        <v>9</v>
+      </c>
+      <c r="J978" t="n">
+        <v>16</v>
+      </c>
+      <c r="K978" t="n">
+        <v>0</v>
+      </c>
+      <c r="L978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M978" t="n">
+        <v>0</v>
+      </c>
+      <c r="N978" t="n">
+        <v>38</v>
+      </c>
+      <c r="O978" t="n">
+        <v>0</v>
+      </c>
+      <c r="P978" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>0</v>
+      </c>
+      <c r="R978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B979" t="n">
+        <v>4533.9501953125</v>
+      </c>
+      <c r="C979" t="n">
+        <v>4595</v>
+      </c>
+      <c r="D979" t="n">
+        <v>4454.89990234375</v>
+      </c>
+      <c r="E979" t="n">
+        <v>4517.10009765625</v>
+      </c>
+      <c r="F979" t="n">
+        <v>4517.10009765625</v>
+      </c>
+      <c r="G979" t="n">
+        <v>254620</v>
+      </c>
+      <c r="H979" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I979" t="n">
+        <v>9</v>
+      </c>
+      <c r="J979" t="n">
+        <v>17</v>
+      </c>
+      <c r="K979" t="n">
+        <v>0</v>
+      </c>
+      <c r="L979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M979" t="n">
+        <v>0</v>
+      </c>
+      <c r="N979" t="n">
+        <v>38</v>
+      </c>
+      <c r="O979" t="n">
+        <v>0</v>
+      </c>
+      <c r="P979" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>0</v>
+      </c>
+      <c r="R979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B980" t="n">
+        <v>4525</v>
+      </c>
+      <c r="C980" t="n">
+        <v>4592.4501953125</v>
+      </c>
+      <c r="D980" t="n">
+        <v>4488.4501953125</v>
+      </c>
+      <c r="E980" t="n">
+        <v>4526.10009765625</v>
+      </c>
+      <c r="F980" t="n">
+        <v>4526.10009765625</v>
+      </c>
+      <c r="G980" t="n">
+        <v>234979</v>
+      </c>
+      <c r="H980" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I980" t="n">
+        <v>9</v>
+      </c>
+      <c r="J980" t="n">
+        <v>18</v>
+      </c>
+      <c r="K980" t="n">
+        <v>0</v>
+      </c>
+      <c r="L980" t="n">
+        <v>0</v>
+      </c>
+      <c r="M980" t="n">
+        <v>0</v>
+      </c>
+      <c r="N980" t="n">
+        <v>38</v>
+      </c>
+      <c r="O980" t="n">
+        <v>0</v>
+      </c>
+      <c r="P980" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>0</v>
+      </c>
+      <c r="R980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B981" t="n">
+        <v>4569</v>
+      </c>
+      <c r="C981" t="n">
+        <v>4579</v>
+      </c>
+      <c r="D981" t="n">
+        <v>4360.10009765625</v>
+      </c>
+      <c r="E981" t="n">
+        <v>4424.64990234375</v>
+      </c>
+      <c r="F981" t="n">
+        <v>4424.64990234375</v>
+      </c>
+      <c r="G981" t="n">
+        <v>302339</v>
+      </c>
+      <c r="H981" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I981" t="n">
+        <v>9</v>
+      </c>
+      <c r="J981" t="n">
+        <v>19</v>
+      </c>
+      <c r="K981" t="n">
+        <v>0</v>
+      </c>
+      <c r="L981" t="n">
+        <v>0</v>
+      </c>
+      <c r="M981" t="n">
+        <v>0</v>
+      </c>
+      <c r="N981" t="n">
+        <v>38</v>
+      </c>
+      <c r="O981" t="n">
+        <v>0</v>
+      </c>
+      <c r="P981" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>0</v>
+      </c>
+      <c r="R981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B982" t="n">
+        <v>4455</v>
+      </c>
+      <c r="C982" t="n">
+        <v>4532.5498046875</v>
+      </c>
+      <c r="D982" t="n">
+        <v>4436</v>
+      </c>
+      <c r="E982" t="n">
+        <v>4459.60009765625</v>
+      </c>
+      <c r="F982" t="n">
+        <v>4459.60009765625</v>
+      </c>
+      <c r="G982" t="n">
+        <v>232319</v>
+      </c>
+      <c r="H982" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I982" t="n">
+        <v>9</v>
+      </c>
+      <c r="J982" t="n">
+        <v>20</v>
+      </c>
+      <c r="K982" t="n">
+        <v>0</v>
+      </c>
+      <c r="L982" t="n">
+        <v>0</v>
+      </c>
+      <c r="M982" t="n">
+        <v>0</v>
+      </c>
+      <c r="N982" t="n">
+        <v>38</v>
+      </c>
+      <c r="O982" t="n">
+        <v>0</v>
+      </c>
+      <c r="P982" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>0</v>
+      </c>
+      <c r="R982" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R982"/>
+  <dimension ref="A1:R987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55237,7 +55237,9 @@
       <c r="Q978" t="n">
         <v>0</v>
       </c>
-      <c r="R978" t="inlineStr"/>
+      <c r="R978" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
@@ -55291,7 +55293,9 @@
       <c r="Q979" t="n">
         <v>0</v>
       </c>
-      <c r="R979" t="inlineStr"/>
+      <c r="R979" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
@@ -55345,7 +55349,9 @@
       <c r="Q980" t="n">
         <v>0</v>
       </c>
-      <c r="R980" t="inlineStr"/>
+      <c r="R980" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
@@ -55399,7 +55405,9 @@
       <c r="Q981" t="n">
         <v>0</v>
       </c>
-      <c r="R981" t="inlineStr"/>
+      <c r="R981" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
@@ -55453,7 +55461,279 @@
       <c r="Q982" t="n">
         <v>0</v>
       </c>
-      <c r="R982" t="inlineStr"/>
+      <c r="R982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B983" t="n">
+        <v>4523</v>
+      </c>
+      <c r="C983" t="n">
+        <v>4773.75</v>
+      </c>
+      <c r="D983" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E983" t="n">
+        <v>4611.39990234375</v>
+      </c>
+      <c r="F983" t="n">
+        <v>4611.39990234375</v>
+      </c>
+      <c r="G983" t="n">
+        <v>1315365</v>
+      </c>
+      <c r="H983" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I983" t="n">
+        <v>9</v>
+      </c>
+      <c r="J983" t="n">
+        <v>23</v>
+      </c>
+      <c r="K983" t="n">
+        <v>0</v>
+      </c>
+      <c r="L983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M983" t="n">
+        <v>0</v>
+      </c>
+      <c r="N983" t="n">
+        <v>39</v>
+      </c>
+      <c r="O983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>0</v>
+      </c>
+      <c r="R983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B984" t="n">
+        <v>4611.39990234375</v>
+      </c>
+      <c r="C984" t="n">
+        <v>4624.9501953125</v>
+      </c>
+      <c r="D984" t="n">
+        <v>4511</v>
+      </c>
+      <c r="E984" t="n">
+        <v>4527.7998046875</v>
+      </c>
+      <c r="F984" t="n">
+        <v>4527.7998046875</v>
+      </c>
+      <c r="G984" t="n">
+        <v>234978</v>
+      </c>
+      <c r="H984" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I984" t="n">
+        <v>9</v>
+      </c>
+      <c r="J984" t="n">
+        <v>24</v>
+      </c>
+      <c r="K984" t="n">
+        <v>0</v>
+      </c>
+      <c r="L984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M984" t="n">
+        <v>0</v>
+      </c>
+      <c r="N984" t="n">
+        <v>39</v>
+      </c>
+      <c r="O984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>0</v>
+      </c>
+      <c r="R984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B985" t="n">
+        <v>4530</v>
+      </c>
+      <c r="C985" t="n">
+        <v>4535</v>
+      </c>
+      <c r="D985" t="n">
+        <v>4411</v>
+      </c>
+      <c r="E985" t="n">
+        <v>4423.39990234375</v>
+      </c>
+      <c r="F985" t="n">
+        <v>4423.39990234375</v>
+      </c>
+      <c r="G985" t="n">
+        <v>201006</v>
+      </c>
+      <c r="H985" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I985" t="n">
+        <v>9</v>
+      </c>
+      <c r="J985" t="n">
+        <v>25</v>
+      </c>
+      <c r="K985" t="n">
+        <v>0</v>
+      </c>
+      <c r="L985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M985" t="n">
+        <v>0</v>
+      </c>
+      <c r="N985" t="n">
+        <v>39</v>
+      </c>
+      <c r="O985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>0</v>
+      </c>
+      <c r="R985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B986" t="n">
+        <v>4545</v>
+      </c>
+      <c r="C986" t="n">
+        <v>4557</v>
+      </c>
+      <c r="D986" t="n">
+        <v>4426.60009765625</v>
+      </c>
+      <c r="E986" t="n">
+        <v>4475.9501953125</v>
+      </c>
+      <c r="F986" t="n">
+        <v>4475.9501953125</v>
+      </c>
+      <c r="G986" t="n">
+        <v>660105</v>
+      </c>
+      <c r="H986" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I986" t="n">
+        <v>9</v>
+      </c>
+      <c r="J986" t="n">
+        <v>26</v>
+      </c>
+      <c r="K986" t="n">
+        <v>0</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M986" t="n">
+        <v>0</v>
+      </c>
+      <c r="N986" t="n">
+        <v>39</v>
+      </c>
+      <c r="O986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P986" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>0</v>
+      </c>
+      <c r="R986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B987" t="n">
+        <v>4475</v>
+      </c>
+      <c r="C987" t="n">
+        <v>4568</v>
+      </c>
+      <c r="D987" t="n">
+        <v>4421</v>
+      </c>
+      <c r="E987" t="n">
+        <v>4454.9501953125</v>
+      </c>
+      <c r="F987" t="n">
+        <v>4454.9501953125</v>
+      </c>
+      <c r="G987" t="n">
+        <v>284147</v>
+      </c>
+      <c r="H987" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I987" t="n">
+        <v>9</v>
+      </c>
+      <c r="J987" t="n">
+        <v>27</v>
+      </c>
+      <c r="K987" t="n">
+        <v>0</v>
+      </c>
+      <c r="L987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M987" t="n">
+        <v>0</v>
+      </c>
+      <c r="N987" t="n">
+        <v>39</v>
+      </c>
+      <c r="O987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>0</v>
+      </c>
+      <c r="R987" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R987"/>
+  <dimension ref="A1:R991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -9038,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="R340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -20630,7 +20630,7 @@
         <v>0</v>
       </c>
       <c r="R360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -26790,7 +26790,7 @@
         <v>2</v>
       </c>
       <c r="R470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -28190,7 +28190,7 @@
         <v>0</v>
       </c>
       <c r="R495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
       <c r="R636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -36590,7 +36590,7 @@
         <v>0</v>
       </c>
       <c r="R645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -39110,7 +39110,7 @@
         <v>0</v>
       </c>
       <c r="R690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -39334,7 +39334,7 @@
         <v>0</v>
       </c>
       <c r="R694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -42190,7 +42190,7 @@
         <v>2</v>
       </c>
       <c r="R745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -43422,7 +43422,7 @@
         <v>2</v>
       </c>
       <c r="R767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768">
@@ -45158,7 +45158,7 @@
         <v>2</v>
       </c>
       <c r="R798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799">
@@ -48406,7 +48406,7 @@
         <v>2</v>
       </c>
       <c r="R856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -48966,7 +48966,7 @@
         <v>1</v>
       </c>
       <c r="R866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -51038,7 +51038,7 @@
         <v>1</v>
       </c>
       <c r="R903" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904">
@@ -54790,7 +54790,7 @@
         <v>2</v>
       </c>
       <c r="R970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971">
@@ -55517,7 +55517,9 @@
       <c r="Q983" t="n">
         <v>0</v>
       </c>
-      <c r="R983" t="inlineStr"/>
+      <c r="R983" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
@@ -55571,7 +55573,9 @@
       <c r="Q984" t="n">
         <v>0</v>
       </c>
-      <c r="R984" t="inlineStr"/>
+      <c r="R984" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
@@ -55625,7 +55629,9 @@
       <c r="Q985" t="n">
         <v>0</v>
       </c>
-      <c r="R985" t="inlineStr"/>
+      <c r="R985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
@@ -55679,7 +55685,9 @@
       <c r="Q986" t="n">
         <v>0</v>
       </c>
-      <c r="R986" t="inlineStr"/>
+      <c r="R986" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
@@ -55733,7 +55741,225 @@
       <c r="Q987" t="n">
         <v>0</v>
       </c>
-      <c r="R987" t="inlineStr"/>
+      <c r="R987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B988" t="n">
+        <v>4455</v>
+      </c>
+      <c r="C988" t="n">
+        <v>4479</v>
+      </c>
+      <c r="D988" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E988" t="n">
+        <v>4409.10009765625</v>
+      </c>
+      <c r="F988" t="n">
+        <v>4409.10009765625</v>
+      </c>
+      <c r="G988" t="n">
+        <v>192150</v>
+      </c>
+      <c r="H988" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I988" t="n">
+        <v>9</v>
+      </c>
+      <c r="J988" t="n">
+        <v>30</v>
+      </c>
+      <c r="K988" t="n">
+        <v>0</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M988" t="n">
+        <v>0</v>
+      </c>
+      <c r="N988" t="n">
+        <v>40</v>
+      </c>
+      <c r="O988" t="n">
+        <v>0</v>
+      </c>
+      <c r="P988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
+      <c r="R988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B989" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C989" t="n">
+        <v>4599</v>
+      </c>
+      <c r="D989" t="n">
+        <v>4420</v>
+      </c>
+      <c r="E989" t="n">
+        <v>4580.2001953125</v>
+      </c>
+      <c r="F989" t="n">
+        <v>4580.2001953125</v>
+      </c>
+      <c r="G989" t="n">
+        <v>359687</v>
+      </c>
+      <c r="H989" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I989" t="n">
+        <v>10</v>
+      </c>
+      <c r="J989" t="n">
+        <v>1</v>
+      </c>
+      <c r="K989" t="n">
+        <v>0</v>
+      </c>
+      <c r="L989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0</v>
+      </c>
+      <c r="N989" t="n">
+        <v>40</v>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
+      <c r="R989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B990" t="n">
+        <v>4479.9501953125</v>
+      </c>
+      <c r="C990" t="n">
+        <v>4558</v>
+      </c>
+      <c r="D990" t="n">
+        <v>4411</v>
+      </c>
+      <c r="E990" t="n">
+        <v>4422.39990234375</v>
+      </c>
+      <c r="F990" t="n">
+        <v>4422.39990234375</v>
+      </c>
+      <c r="G990" t="n">
+        <v>270543</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I990" t="n">
+        <v>10</v>
+      </c>
+      <c r="J990" t="n">
+        <v>3</v>
+      </c>
+      <c r="K990" t="n">
+        <v>0</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>40</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B991" t="n">
+        <v>4412.9501953125</v>
+      </c>
+      <c r="C991" t="n">
+        <v>4439</v>
+      </c>
+      <c r="D991" t="n">
+        <v>4245.2998046875</v>
+      </c>
+      <c r="E991" t="n">
+        <v>4266.5</v>
+      </c>
+      <c r="F991" t="n">
+        <v>4266.5</v>
+      </c>
+      <c r="G991" t="n">
+        <v>292517</v>
+      </c>
+      <c r="H991" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I991" t="n">
+        <v>10</v>
+      </c>
+      <c r="J991" t="n">
+        <v>4</v>
+      </c>
+      <c r="K991" t="n">
+        <v>0</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>40</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R991"/>
+  <dimension ref="A1:R996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -9038,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="R340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -20630,7 +20630,7 @@
         <v>0</v>
       </c>
       <c r="R360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -26790,7 +26790,7 @@
         <v>2</v>
       </c>
       <c r="R470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -28190,7 +28190,7 @@
         <v>0</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
       <c r="R636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -36590,7 +36590,7 @@
         <v>0</v>
       </c>
       <c r="R645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -39110,7 +39110,7 @@
         <v>0</v>
       </c>
       <c r="R690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -39334,7 +39334,7 @@
         <v>0</v>
       </c>
       <c r="R694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695">
@@ -42190,7 +42190,7 @@
         <v>2</v>
       </c>
       <c r="R745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -43422,7 +43422,7 @@
         <v>2</v>
       </c>
       <c r="R767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -45158,7 +45158,7 @@
         <v>2</v>
       </c>
       <c r="R798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -48406,7 +48406,7 @@
         <v>2</v>
       </c>
       <c r="R856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -48966,7 +48966,7 @@
         <v>1</v>
       </c>
       <c r="R866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867">
@@ -51038,7 +51038,7 @@
         <v>1</v>
       </c>
       <c r="R903" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -54790,7 +54790,7 @@
         <v>2</v>
       </c>
       <c r="R970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -55509,7 +55509,7 @@
         <v>39</v>
       </c>
       <c r="O983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P983" t="n">
         <v>0</v>
@@ -55797,7 +55797,9 @@
       <c r="Q988" t="n">
         <v>0</v>
       </c>
-      <c r="R988" t="inlineStr"/>
+      <c r="R988" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
@@ -55851,7 +55853,9 @@
       <c r="Q989" t="n">
         <v>0</v>
       </c>
-      <c r="R989" t="inlineStr"/>
+      <c r="R989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
@@ -55905,7 +55909,9 @@
       <c r="Q990" t="n">
         <v>0</v>
       </c>
-      <c r="R990" t="inlineStr"/>
+      <c r="R990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -55959,7 +55965,279 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B992" t="n">
+        <v>4266</v>
+      </c>
+      <c r="C992" t="n">
+        <v>4305</v>
+      </c>
+      <c r="D992" t="n">
+        <v>4050</v>
+      </c>
+      <c r="E992" t="n">
+        <v>4109.0498046875</v>
+      </c>
+      <c r="F992" t="n">
+        <v>4109.0498046875</v>
+      </c>
+      <c r="G992" t="n">
+        <v>315281</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I992" t="n">
+        <v>10</v>
+      </c>
+      <c r="J992" t="n">
+        <v>7</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>41</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B993" t="n">
+        <v>4125</v>
+      </c>
+      <c r="C993" t="n">
+        <v>4447.9501953125</v>
+      </c>
+      <c r="D993" t="n">
+        <v>4082.89990234375</v>
+      </c>
+      <c r="E993" t="n">
+        <v>4410.35009765625</v>
+      </c>
+      <c r="F993" t="n">
+        <v>4410.35009765625</v>
+      </c>
+      <c r="G993" t="n">
+        <v>454223</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I993" t="n">
+        <v>10</v>
+      </c>
+      <c r="J993" t="n">
+        <v>8</v>
+      </c>
+      <c r="K993" t="n">
+        <v>0</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>41</v>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B994" t="n">
+        <v>4399.9501953125</v>
+      </c>
+      <c r="C994" t="n">
+        <v>4440</v>
+      </c>
+      <c r="D994" t="n">
+        <v>4370.0498046875</v>
+      </c>
+      <c r="E994" t="n">
+        <v>4410.35009765625</v>
+      </c>
+      <c r="F994" t="n">
+        <v>4410.35009765625</v>
+      </c>
+      <c r="G994" t="n">
+        <v>169139</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>10</v>
+      </c>
+      <c r="J994" t="n">
+        <v>9</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>41</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>2</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B995" t="n">
+        <v>4442</v>
+      </c>
+      <c r="C995" t="n">
+        <v>4528.9501953125</v>
+      </c>
+      <c r="D995" t="n">
+        <v>4405.5498046875</v>
+      </c>
+      <c r="E995" t="n">
+        <v>4490.4501953125</v>
+      </c>
+      <c r="F995" t="n">
+        <v>4490.4501953125</v>
+      </c>
+      <c r="G995" t="n">
+        <v>205033</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>10</v>
+      </c>
+      <c r="J995" t="n">
+        <v>10</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>41</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B996" t="n">
+        <v>4517.4501953125</v>
+      </c>
+      <c r="C996" t="n">
+        <v>4589</v>
+      </c>
+      <c r="D996" t="n">
+        <v>4461.2998046875</v>
+      </c>
+      <c r="E996" t="n">
+        <v>4511.25</v>
+      </c>
+      <c r="F996" t="n">
+        <v>4511.25</v>
+      </c>
+      <c r="G996" t="n">
+        <v>253808</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>10</v>
+      </c>
+      <c r="J996" t="n">
+        <v>11</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>41</v>
+      </c>
+      <c r="O996" t="n">
+        <v>0</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R996"/>
+  <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56021,7 +56021,9 @@
       <c r="Q992" t="n">
         <v>0</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -56075,7 +56077,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -56129,7 +56133,9 @@
       <c r="Q994" t="n">
         <v>2</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56183,7 +56189,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56237,7 +56245,279 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B997" t="n">
+        <v>4530</v>
+      </c>
+      <c r="C997" t="n">
+        <v>4674</v>
+      </c>
+      <c r="D997" t="n">
+        <v>4401.89990234375</v>
+      </c>
+      <c r="E997" t="n">
+        <v>4600.60009765625</v>
+      </c>
+      <c r="F997" t="n">
+        <v>4600.60009765625</v>
+      </c>
+      <c r="G997" t="n">
+        <v>609366</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>10</v>
+      </c>
+      <c r="J997" t="n">
+        <v>14</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>42</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B998" t="n">
+        <v>4630</v>
+      </c>
+      <c r="C998" t="n">
+        <v>4738.2001953125</v>
+      </c>
+      <c r="D998" t="n">
+        <v>4594.7998046875</v>
+      </c>
+      <c r="E998" t="n">
+        <v>4626.2998046875</v>
+      </c>
+      <c r="F998" t="n">
+        <v>4626.2998046875</v>
+      </c>
+      <c r="G998" t="n">
+        <v>368895</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>10</v>
+      </c>
+      <c r="J998" t="n">
+        <v>15</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>42</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B999" t="n">
+        <v>4606.0498046875</v>
+      </c>
+      <c r="C999" t="n">
+        <v>4910</v>
+      </c>
+      <c r="D999" t="n">
+        <v>4592</v>
+      </c>
+      <c r="E999" t="n">
+        <v>4836.5498046875</v>
+      </c>
+      <c r="F999" t="n">
+        <v>4836.5498046875</v>
+      </c>
+      <c r="G999" t="n">
+        <v>1207042</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>10</v>
+      </c>
+      <c r="J999" t="n">
+        <v>16</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>42</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>4893.64990234375</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>4969.85009765625</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>4801.35009765625</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>4851.64990234375</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>4851.64990234375</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>956372</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>4830</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>4846.64990234375</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>4652</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>4742</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>4742</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>450147</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:R1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56013,7 +56013,7 @@
         <v>41</v>
       </c>
       <c r="O992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P992" t="n">
         <v>0</v>
@@ -56301,7 +56301,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56355,7 +56357,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56409,7 +56413,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56463,7 +56469,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56517,7 +56525,279 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>4742</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>4798</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>4631.4501953125</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>4644.7001953125</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>4644.7001953125</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>355443</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>4649</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>4660</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>4386.64990234375</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>4400.4501953125</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>4400.4501953125</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>369810</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>4393</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>4641.60009765625</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>4334.75</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>4560.25</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>4560.25</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>475604</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>4562.9501953125</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>4600</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>4458.39990234375</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>4500.60009765625</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>4500.60009765625</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>173348</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>4509.7998046875</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>4567.2001953125</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>4291.0498046875</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>4315.5</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>4315.5</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>233780</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1006"/>
+  <dimension ref="A1:R1011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56461,7 +56461,7 @@
         <v>42</v>
       </c>
       <c r="O1000" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1000" t="n">
         <v>0</v>
@@ -56581,7 +56581,9 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56635,7 +56637,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56689,7 +56693,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56743,7 +56749,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56797,7 +56805,279 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>4355.4501953125</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>4389</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>4250.0498046875</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>4276.25</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>4276.25</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>386326</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>4305</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>4377.2998046875</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>4206</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>4331.14990234375</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>4331.14990234375</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>215140</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>4328.75</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>4445</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>4290.10009765625</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>4381.7998046875</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>4381.7998046875</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>190723</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>4385</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>4517</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>4328.75</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>4443.7001953125</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>4443.7001953125</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>289323</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>4488</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>4527.89990234375</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>4460.25</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>4525</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>4525</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>42026</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1011"/>
+  <dimension ref="A1:R1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56861,7 +56861,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56915,7 +56917,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56969,7 +56973,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -57023,7 +57029,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57077,7 +57085,279 @@
       <c r="Q1011" t="n">
         <v>2</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>4530</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>4787.25</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>4505</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>4542.64990234375</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>4532.419921875</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>1135535</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>4550</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>4611</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>4505.5498046875</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>4564.60009765625</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>4554.32080078125</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>233238</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>4594</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>4690.5</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>4564</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>4672.64990234375</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>4662.126953125</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>344135</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>4695.9501953125</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>4755.9501953125</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>4642.0498046875</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>4662.5</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>4652</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>228536</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>4662</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>4785</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>4655</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>4673.85009765625</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>4673.85009765625</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>315823</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1016"/>
+  <dimension ref="A1:R1020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56909,7 +56909,7 @@
         <v>44</v>
       </c>
       <c r="O1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1008" t="n">
         <v>0</v>
@@ -57141,7 +57141,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57195,7 +57197,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57249,7 +57253,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57303,7 +57309,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57357,7 +57365,225 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>4676</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>4769.89990234375</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>4620</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>4720.10009765625</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>4720.10009765625</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>214031</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>4746</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>4892.2001953125</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>4656.5498046875</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>4681.7001953125</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>4681.7001953125</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>439487</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>4670</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>4706.25</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>4471</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>4492.2998046875</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>4492.2998046875</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>310748</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>4504.9501953125</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>4649.9501953125</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>4504.9501953125</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>4581.9501953125</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>4581.9501953125</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>262219</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1020"/>
+  <dimension ref="A1:R1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57421,7 +57421,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57475,7 +57477,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57529,7 +57533,9 @@
       <c r="Q1019" t="n">
         <v>1</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57583,7 +57589,225 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>4618</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>4618</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>4451</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>4495.25</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>4495.25</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>191325</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>4523</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>4635</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>4510.60009765625</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>4538.10009765625</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>4538.10009765625</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>214155</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>4510</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>4569.7001953125</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>4456</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>4532.85009765625</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>4532.85009765625</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>169796</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>4550</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>4573.89990234375</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>4420</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>4449.35009765625</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>4449.35009765625</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>290789</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1024"/>
+  <dimension ref="A1:R1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57645,7 +57645,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57699,7 +57701,9 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57753,7 +57757,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57807,7 +57813,279 @@
       <c r="Q1024" t="n">
         <v>0</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>4510</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>4579.9501953125</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>4465.14990234375</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>4544.9501953125</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>4544.9501953125</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>214213</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>4569</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>4781.7001953125</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>4568.9501953125</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>4751.60009765625</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>4751.60009765625</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>411779</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>4770</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>4998.75</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>4725.5498046875</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>4850.0498046875</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>4850.0498046875</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>720132</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>4870.9501953125</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>5012.7998046875</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>4852</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>4893.35009765625</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>4893.35009765625</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>499360</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>4915.89990234375</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>5098.7998046875</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>4906</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>4928.39990234375</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>4928.39990234375</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>820276</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1029"/>
+  <dimension ref="A1:R1034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57805,7 +57805,7 @@
         <v>47</v>
       </c>
       <c r="O1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1024" t="n">
         <v>0</v>
@@ -57869,7 +57869,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57923,7 +57925,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57977,7 +57981,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -58031,7 +58037,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58085,7 +58093,279 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>4975</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>5145</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>4970</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>5102.2998046875</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>5102.2998046875</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>914303</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>5120</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>5144.89990234375</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>5007</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>5120.2001953125</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>5120.2001953125</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>431127</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>5115</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>5204.5498046875</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>5104.10009765625</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>5181.75</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>5181.75</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>397131</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>5199</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>5360.5</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>5140.0498046875</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>5244.14990234375</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>5244.14990234375</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>994656</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>5256.35009765625</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>5272.25</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>5057.2998046875</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>5069.60009765625</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>5069.60009765625</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>668565</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1034"/>
+  <dimension ref="A1:R1044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58149,7 +58149,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58203,7 +58205,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58257,7 +58261,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58311,7 +58317,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58365,7 +58373,529 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>5069.60009765625</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>5315</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>5022.0498046875</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>5269.5</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>746803</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>5284</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>5289</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>5164.35009765625</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>5211.14990234375</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>338165</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>5209.10009765625</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>5301</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>5201</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>5222.0498046875</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>365295</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>5367.5</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>5238.7001953125</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>5276.2001953125</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>617394</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>5276.2001953125</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>5286</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>5133</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>5186.85009765625</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>369055</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>5194.35009765625</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>5228</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>5141</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>5214.9501953125</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>216485</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>5190</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>5246.35009765625</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>5135.64990234375</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>317281</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>5144</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>5167.4501953125</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>5071</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>5131.2001953125</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>199759</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>4972.4501953125</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>5148.5</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>4951</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>5113.4501953125</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>363099</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>5144.89990234375</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>5185.85009765625</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>4934</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>4951</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>303015</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1044"/>
+  <dimension ref="A1:R1048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58427,7 +58427,9 @@
       <c r="Q1035" t="n">
         <v>1</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58479,7 +58481,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58531,7 +58535,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58575,7 +58581,7 @@
         <v>50</v>
       </c>
       <c r="O1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1038" t="n">
         <v>0</v>
@@ -58583,7 +58589,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58635,7 +58643,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58687,7 +58697,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58739,7 +58751,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58791,7 +58805,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58843,7 +58859,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58895,7 +58913,217 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>4960</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>5017.4501953125</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>4840</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>4903</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>261277</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>4890</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>4937.25</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>4847</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>4928.7001953125</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>153587</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>4940</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>4997</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>4870</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>4964</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>145046</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>5008</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>5096</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>4971</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>5041.75</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>271290</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1048"/>
+  <dimension ref="A1:R1053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58967,7 +58967,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -59019,7 +59021,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59071,7 +59075,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59123,7 +59129,269 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>5016.14990234375</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>5111</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>4976</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>5072.2001953125</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>432216</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>5066.9501953125</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>5099.89990234375</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>4863.60009765625</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>5075.39990234375</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>391107</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>5010.2001953125</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>5149.64990234375</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>4973.60009765625</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>5098.75</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>286808</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>5137.9501953125</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>5215</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>5072.2998046875</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>5203.2998046875</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>475615</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>5198.0498046875</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>5287.85009765625</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>5085.25</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>5096.0498046875</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>398625</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1053"/>
+  <dimension ref="A1:R1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59183,7 +59183,9 @@
       <c r="Q1049" t="n">
         <v>2</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59235,7 +59237,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59287,7 +59291,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59339,7 +59345,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59391,7 +59399,269 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>5092.4501953125</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>5126.9501953125</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>4837.9501953125</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>4852.60009765625</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>334884</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>4868</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>4969</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>4840.39990234375</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>4878.7998046875</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>244811</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>4899.89990234375</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>4929.25</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>4707.9501953125</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>382806</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>4707</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>4765</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>4651.2001953125</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>4662</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>233968</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>4660.0498046875</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>4695.64990234375</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>4503.0498046875</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>4522.75</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>268307</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1058"/>
+  <dimension ref="A1:R1063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59391,7 +59391,7 @@
         <v>1</v>
       </c>
       <c r="O1053" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1053" t="n">
         <v>0</v>
@@ -59453,7 +59453,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59505,7 +59507,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59557,7 +59561,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59609,7 +59615,9 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59661,7 +59669,269 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>4464</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>4519.4501953125</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>4242</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>4281.85009765625</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>452427</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>4320</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>4395</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>4204</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>4219.60009765625</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>370586</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>4278.2001953125</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>4380</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>4242</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>4305.39990234375</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>427182</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>4529</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>4350</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>4444.14990234375</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>534221</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>4470</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>4510</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>4313.85009765625</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>4418.10009765625</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>253390</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1063"/>
+  <dimension ref="A1:R1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59723,7 +59723,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59775,7 +59777,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59827,7 +59831,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59879,7 +59885,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59931,7 +59939,269 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>4460</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>4375.0498046875</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>4430.9501953125</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>161291</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>4499.39990234375</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>4520</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>4230</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>4248.0498046875</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>392080</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>4257.0498046875</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>3976</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>4075.25</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>602893</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>4075.25</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>4187.64990234375</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>4030.10009765625</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>4159.25</v>
+      </c>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="n">
+        <v>525391</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>4150</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>4284.60009765625</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>4078.64990234375</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>4101.10009765625</v>
+      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="n">
+        <v>332340</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1068"/>
+  <dimension ref="A1:R1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59993,7 +59993,9 @@
       <c r="Q1064" t="n">
         <v>2</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60045,7 +60047,9 @@
       <c r="Q1065" t="n">
         <v>0</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60097,7 +60101,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60149,7 +60155,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60201,7 +60209,269 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>4059</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>4059</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>3778.64990234375</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>3808.64990234375</v>
+      </c>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="n">
+        <v>837179</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>3840</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>3863.949951171875</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>3647.949951171875</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>3720.39990234375</v>
+      </c>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="n">
+        <v>649752</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>3740</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>4012.89990234375</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>3710.39990234375</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>3944.89990234375</v>
+      </c>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="n">
+        <v>1112274</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>3984</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>3989.800048828125</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>3590.5</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>3637.199951171875</v>
+      </c>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="n">
+        <v>1705426</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>3660</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>3667</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>3550</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>3603.5</v>
+      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="n">
+        <v>812115</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1073"/>
+  <dimension ref="A1:R1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60263,7 +60263,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60315,7 +60317,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60367,7 +60371,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60419,7 +60425,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60471,7 +60479,321 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>3602.653179613272</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>3690.13332339755</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>3454.76336290881</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>3520.398193359375</v>
+      </c>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="n">
+        <v>660530</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>3513.33219870311</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>3556.873155538214</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>3365.840366087358</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>3381.763916015625</v>
+      </c>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="n">
+        <v>646917</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>3412.615633795673</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>3511.341590121397</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>3394.80126033936</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>3497.060302734375</v>
+      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="n">
+        <v>683646</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>3523.085330526842</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>3779.852566480493</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>3514.72556422031</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>3730.837890625</v>
+      </c>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="n">
+        <v>1322982</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>3752.036157809834</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>3755.967235494881</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>3626.040975295969</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>3645</v>
+      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="n">
+        <v>736179</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>3682.949951171875</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>3740.050048828125</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>3629</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>3663.050048828125</v>
+      </c>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="n">
+        <v>554881</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1079"/>
+  <dimension ref="A1:R1084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60533,7 +60533,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60585,7 +60587,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60637,7 +60641,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60689,7 +60695,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60741,7 +60749,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60793,7 +60803,269 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>3663</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>3669.89990234375</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>3526.75</v>
+      </c>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="n">
+        <v>371179</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>3520</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>3529.800048828125</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>3360</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>3378.35009765625</v>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="n">
+        <v>555628</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>3378.35009765625</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>3552.949951171875</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>3301.050048828125</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>3528</v>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="n">
+        <v>859238</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>3528</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>3539.949951171875</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>3401</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>3410.199951171875</v>
+      </c>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="n">
+        <v>447275</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>3438.800048828125</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>3456.199951171875</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>3312</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>3375.35009765625</v>
+      </c>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="n">
+        <v>345087</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1084"/>
+  <dimension ref="A1:R1089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60857,7 +60857,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
@@ -60909,7 +60911,9 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
@@ -60961,7 +60965,9 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -61013,7 +61019,9 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -61065,7 +61073,269 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>3338</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>3417.89990234375</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>3275</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>3381.800048828125</v>
+      </c>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="n">
+        <v>592513</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>3381.800048828125</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>3391.449951171875</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>3252.25</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>3278</v>
+      </c>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="n">
+        <v>439551</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>3250</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>3433</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>3206.64990234375</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>3371.050048828125</v>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="n">
+        <v>485674</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>3485.75</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>3316.550048828125</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>3439.14990234375</v>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="n">
+        <v>511643</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>3439.949951171875</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>3545</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>3404</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>3427.5</v>
+      </c>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="n">
+        <v>624051</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1089"/>
+  <dimension ref="A1:R1098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61127,7 +61127,9 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
@@ -61179,7 +61181,9 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -61231,7 +61235,9 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -61283,7 +61289,9 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -61335,7 +61343,477 @@
       <c r="Q1089" t="n">
         <v>0</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>3378.699951171875</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>3447.699951171875</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>3344.75</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>3417.75</v>
+      </c>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="n">
+        <v>364315</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>3408.550048828125</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>3422.949951171875</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>3315.5</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>3345.14990234375</v>
+      </c>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="n">
+        <v>363358</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>3358</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>3379</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>3246.5</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>3257.75</v>
+      </c>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="n">
+        <v>352465</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>3206.949951171875</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>3227.39990234375</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>3126</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>3143.10009765625</v>
+      </c>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="n">
+        <v>586964</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>3162.050048828125</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>3198</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>3031.050048828125</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>3134</v>
+      </c>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="n">
+        <v>527204</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>3115</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>3172</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>3077.199951171875</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>3138</v>
+      </c>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="n">
+        <v>332941</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>3130</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>3203.60009765625</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>3107.199951171875</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>3195.300048828125</v>
+      </c>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="n">
+        <v>429235</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>3247.64990234375</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>3322</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>3210.5</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>3302.64990234375</v>
+      </c>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="n">
+        <v>611517</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>3311</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>3383</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>3287.449951171875</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>3365.699951171875</v>
+      </c>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="n">
+        <v>639028</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1098"/>
+  <dimension ref="A1:R1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61397,7 +61397,9 @@
       <c r="Q1090" t="n">
         <v>0</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -61449,7 +61451,9 @@
       <c r="Q1091" t="n">
         <v>0</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61501,7 +61505,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -61553,7 +61559,9 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
@@ -61597,7 +61605,7 @@
         <v>10</v>
       </c>
       <c r="O1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1094" t="n">
         <v>0</v>
@@ -61605,7 +61613,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61657,7 +61667,9 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -61709,7 +61721,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61761,7 +61775,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61813,7 +61829,477 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>3370</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>3437.5</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>3331.14990234375</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>3347.75</v>
+      </c>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="n">
+        <v>639678</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>3388.5</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>3263.35009765625</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>3364.550048828125</v>
+      </c>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="n">
+        <v>401303</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>3374.550048828125</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>3408.949951171875</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>3289.25</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>3323.800048828125</v>
+      </c>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="n">
+        <v>486688</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>3344</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>3452.75</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>3288.050048828125</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>3410.10009765625</v>
+      </c>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="n">
+        <v>715052</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>3449.800048828125</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>3518.64990234375</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>3409.5</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>3425.25</v>
+      </c>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="n">
+        <v>675639</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>3425.25</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>3425.25</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>3425.25</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>3425.25</v>
+      </c>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>3639.949951171875</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>3830</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>3619.10009765625</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>3815.949951171875</v>
+      </c>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="n">
+        <v>1005899</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>3848</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>3857</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>3680.800048828125</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>3706.199951171875</v>
+      </c>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="n">
+        <v>726958</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>3719</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>3849</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>3691.60009765625</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>3815.699951171875</v>
+      </c>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="n">
+        <v>791203</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1107"/>
+  <dimension ref="A1:R1116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133" t="n">
         <v>1</v>
@@ -61883,7 +61883,9 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -61935,7 +61937,9 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
@@ -61987,7 +61991,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62039,7 +62045,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62091,7 +62099,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62143,7 +62153,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62195,7 +62207,9 @@
       <c r="Q1105" t="n">
         <v>1</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
@@ -62247,7 +62261,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62299,7 +62315,477 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>3834</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>3877.85009765625</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>3795</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>3812.39990234375</v>
+      </c>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="n">
+        <v>442744</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>3810</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>3810</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>3650</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>3657.75</v>
+      </c>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="n">
+        <v>614606</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>3657.75</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>3733</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>3619.050048828125</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>3684.550048828125</v>
+      </c>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="n">
+        <v>547890</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>3659</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>3741.89990234375</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>3652.60009765625</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>3687.89990234375</v>
+      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="n">
+        <v>537592</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>3706</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>3814.10009765625</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>3700.050048828125</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>3723.35009765625</v>
+      </c>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="n">
+        <v>694228</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>3712</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>3772</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>3640</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>3671.25</v>
+      </c>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="n">
+        <v>321355</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>3671.25</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>3780</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>3630.60009765625</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>3756.75</v>
+      </c>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="n">
+        <v>329115</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>3749</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>3834</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>3682.300048828125</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>3823.300048828125</v>
+      </c>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="n">
+        <v>377309</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>3801.39990234375</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>3824.949951171875</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>3650.050048828125</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>3683.300048828125</v>
+      </c>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="n">
+        <v>483971</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1116"/>
+  <dimension ref="A1:R1120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62361,7 +62361,7 @@
         <v>13</v>
       </c>
       <c r="O1108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1108" t="n">
         <v>0</v>
@@ -62369,7 +62369,9 @@
       <c r="Q1108" t="n">
         <v>0</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62421,7 +62423,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62473,7 +62477,9 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
@@ -62525,7 +62531,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62577,7 +62585,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62629,7 +62639,9 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
@@ -62681,7 +62693,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62733,7 +62747,9 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
@@ -62785,7 +62801,217 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>3583</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>3350</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>3528.85009765625</v>
+      </c>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="n">
+        <v>506010</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>3640</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>3694.25</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>3550.5</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>3573</v>
+      </c>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="n">
+        <v>341221</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>3573</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>3627</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>3507.10009765625</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>3590.199951171875</v>
+      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="n">
+        <v>288092</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>3693.199951171875</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>3733.5</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>3593.050048828125</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>3716.699951171875</v>
+      </c>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="n">
+        <v>437837</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1120"/>
+  <dimension ref="A1:R1123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62855,7 +62855,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -62907,7 +62909,9 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -62959,7 +62963,9 @@
       <c r="Q1119" t="n">
         <v>2</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63011,7 +63017,165 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>3790</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>3847</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>3752.5</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>3832.89990234375</v>
+      </c>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="n">
+        <v>418243</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>3844.800048828125</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>3911.5</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>3834</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>3894.39990234375</v>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="n">
+        <v>464822</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>3941.800048828125</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>3837.699951171875</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>3882.5</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>427656</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1123"/>
+  <dimension ref="A1:R1132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62847,7 +62847,7 @@
         <v>15</v>
       </c>
       <c r="O1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1117" t="n">
         <v>0</v>
@@ -63071,7 +63071,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63123,7 +63125,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
@@ -63175,7 +63179,477 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>3919</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>4036</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>3900</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>4000.800048828125</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>492565</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>4019</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>4124.2001953125</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>3990</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>4005.10009765625</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>591117</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>4038</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>4115</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>3992.300048828125</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>4102</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>435319</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>4110</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>4127</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>4028.39990234375</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>4045.89990234375</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>444362</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>4058.5</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>4097.89990234375</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>3890</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>3938.10009765625</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>494714</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>3934</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>3974.800048828125</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>3900</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>3944.10009765625</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>206250</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>3964.800048828125</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>4038.199951171875</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>3955.5</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>3999.800048828125</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>253569</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>4020</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>3883.300048828125</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>3906.300048828125</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>250408</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>3906.300048828125</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>3935</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>3825</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>3843.5</v>
+      </c>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="n">
+        <v>223299</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CAMS.NS.xlsx
+++ b/stock_historical_data/1d/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1132"/>
+  <dimension ref="A1:R1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R153" t="n">
         <v>0</v>
@@ -63233,7 +63233,9 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
@@ -63285,7 +63287,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63337,7 +63341,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63381,7 +63387,7 @@
         <v>17</v>
       </c>
       <c r="O1127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1127" t="n">
         <v>0</v>
@@ -63389,7 +63395,9 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
@@ -63441,7 +63449,9 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
@@ -63493,7 +63503,9 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
@@ -63545,7 +63557,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63597,7 +63611,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63649,7 +63665,529 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>3860</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>3860.800048828125</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>3775</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>3807.800048828125</v>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="n">
+        <v>405759</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>3801</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>3895.699951171875</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>3607.89990234375</v>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="n">
+        <v>1305600</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>3550</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>3669.199951171875</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>3550</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>3642.699951171875</v>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="n">
+        <v>806007</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>3645</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>3792</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>3569.199951171875</v>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="n">
+        <v>981124</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>3475</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>3520</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>3415</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>3479.60009765625</v>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="n">
+        <v>1022585</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>3640.5</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>3680</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>3604.60009765625</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>3671.60009765625</v>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="n">
+        <v>673448</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>3677.89990234375</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>3680</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>3606.39990234375</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>3626.199951171875</v>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="n">
+        <v>434817</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>3650</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>3660</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>3610.5</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>3649</v>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="n">
+        <v>362580</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>3660</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>3735</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>3640</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>3726.39990234375</v>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="n">
+        <v>491241</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>3751</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>3929</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>3737</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>3890.89990234375</v>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="n">
+        <v>880748</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
